--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.738374394159734</v>
+        <v>1.738374394159365</v>
       </c>
       <c r="C2">
-        <v>0.73753372114939</v>
+        <v>0.7375337211492763</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04812196255231882</v>
+        <v>0.04812196255232593</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.793952082126111</v>
+        <v>2.793952082126054</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5719791178061868</v>
+        <v>0.5719791178061655</v>
       </c>
       <c r="K2">
-        <v>0.1814247261016959</v>
+        <v>0.1814247261016604</v>
       </c>
       <c r="L2">
-        <v>0.573721232544294</v>
+        <v>0.5737212325443011</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.494301497846834</v>
+        <v>1.494301497846976</v>
       </c>
       <c r="C3">
-        <v>0.6332716242680192</v>
+        <v>0.6332716242683034</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04318746639944493</v>
+        <v>0.04318746639946625</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.507363686736426</v>
+        <v>2.50736368673644</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4915034433726078</v>
+        <v>0.4915034433726007</v>
       </c>
       <c r="K3">
-        <v>0.157734110785519</v>
+        <v>0.1577341107855297</v>
       </c>
       <c r="L3">
-        <v>0.4950058641947166</v>
+        <v>0.4950058641946882</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.347532154582382</v>
+        <v>1.347532154582154</v>
       </c>
       <c r="C4">
-        <v>0.5706204945518039</v>
+        <v>0.5706204945522302</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04024174568047023</v>
+        <v>0.04024174568047911</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.335849409253882</v>
+        <v>2.335849409253925</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4431199380236066</v>
+        <v>0.4431199380235782</v>
       </c>
       <c r="K4">
-        <v>0.1435302157073082</v>
+        <v>0.1435302157073011</v>
       </c>
       <c r="L4">
-        <v>0.4477351972969288</v>
+        <v>0.447735197296943</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.28838742756605</v>
+        <v>1.288387427566107</v>
       </c>
       <c r="C5">
-        <v>0.545380964111871</v>
+        <v>0.5453809641120984</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0390601567235862</v>
+        <v>0.03906015672363061</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4236238586265202</v>
+        <v>0.4236238586264989</v>
       </c>
       <c r="K5">
-        <v>0.1378166872886162</v>
+        <v>0.137816687288641</v>
       </c>
       <c r="L5">
-        <v>0.4287019622202237</v>
+        <v>0.4287019622202024</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.278603571307855</v>
+        <v>1.278603571307769</v>
       </c>
       <c r="C6">
-        <v>0.5412061241704578</v>
+        <v>0.5412061241706567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03886502720706098</v>
+        <v>0.0388650272070965</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.25553673058819</v>
+        <v>2.255536730588204</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4203988292316936</v>
+        <v>0.4203988292316723</v>
       </c>
       <c r="K6">
-        <v>0.1368721579215304</v>
+        <v>0.1368721579215126</v>
       </c>
       <c r="L6">
-        <v>0.4255543871551595</v>
+        <v>0.4255543871551666</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346731956420854</v>
+        <v>1.346731956420825</v>
       </c>
       <c r="C7">
-        <v>0.5702789911923105</v>
+        <v>0.5702789911925379</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04022573709372423</v>
+        <v>0.04022573709369226</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.33491615015302</v>
+        <v>2.334916150153063</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4428561615643929</v>
+        <v>0.4428561615643716</v>
       </c>
       <c r="K7">
-        <v>0.1434528729749935</v>
+        <v>0.1434528729749971</v>
       </c>
       <c r="L7">
         <v>0.4474776234629587</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.653504726100522</v>
+        <v>1.653504726100692</v>
       </c>
       <c r="C8">
-        <v>0.7012674417926803</v>
+        <v>0.7012674417927656</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.69411835841872</v>
+        <v>2.694118358418706</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5439933574522087</v>
+        <v>0.5439933574522016</v>
       </c>
       <c r="K8">
-        <v>0.1731779601484966</v>
+        <v>0.1731779601485002</v>
       </c>
       <c r="L8">
         <v>0.5463366355669947</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.285395920566998</v>
+        <v>2.285395920566771</v>
       </c>
       <c r="C9">
         <v>0.9716513374604574</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05929762682185569</v>
+        <v>0.05929762682182016</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.441379286883773</v>
+        <v>3.441379286883745</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7524408417558917</v>
+        <v>0.7524408417559343</v>
       </c>
       <c r="K9">
-        <v>0.234764452709598</v>
+        <v>0.234764452709662</v>
       </c>
       <c r="L9">
-        <v>0.7504989928433545</v>
+        <v>0.750498992843319</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.777433716611768</v>
+        <v>2.777433716611711</v>
       </c>
       <c r="C10">
         <v>1.182855923448699</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06943872637462789</v>
+        <v>0.06943872637462079</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9149055864579196</v>
+        <v>0.9149055864579339</v>
       </c>
       <c r="K10">
-        <v>0.2829506454761841</v>
+        <v>0.2829506454762125</v>
       </c>
       <c r="L10">
-        <v>0.9098022698625883</v>
+        <v>0.9098022698625812</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.00981631304569</v>
+        <v>3.009816313045917</v>
       </c>
       <c r="C11">
-        <v>1.282827962860949</v>
+        <v>1.282827962860722</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07424662067211329</v>
+        <v>0.07424662067203514</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9916875090481625</v>
+        <v>0.9916875090481483</v>
       </c>
       <c r="K11">
-        <v>0.3057583226977627</v>
+        <v>0.3057583226977911</v>
       </c>
       <c r="L11">
-        <v>0.985106173630399</v>
+        <v>0.9851061736303777</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>3.099294880144896</v>
       </c>
       <c r="C12">
-        <v>1.321361679659276</v>
+        <v>1.321361679659674</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07610015247499646</v>
+        <v>0.07610015247500712</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.414609581380404</v>
+        <v>4.414609581380375</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.021261589652923</v>
+        <v>1.021261589652951</v>
       </c>
       <c r="K12">
-        <v>0.3145473827813134</v>
+        <v>0.3145473827812921</v>
       </c>
       <c r="L12">
-        <v>1.014110826419568</v>
+        <v>1.014110826419575</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.079953781965003</v>
+        <v>3.079953781964889</v>
       </c>
       <c r="C13">
         <v>1.313030596051021</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07569941230057964</v>
+        <v>0.07569941230056898</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.014868606081009</v>
+        <v>1.014868606080981</v>
       </c>
       <c r="K13">
-        <v>0.3126472917755763</v>
+        <v>0.3126472917755407</v>
       </c>
       <c r="L13">
         <v>1.007840986114147</v>
@@ -871,13 +871,13 @@
         <v>3.017146513408818</v>
       </c>
       <c r="C14">
-        <v>1.285983858403199</v>
+        <v>1.28598385840354</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07439842195248758</v>
+        <v>0.07439842195254442</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.315941804768983</v>
+        <v>4.315941804769011</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.994110059146891</v>
+        <v>0.9941100591468768</v>
       </c>
       <c r="K14">
-        <v>0.3064781961044005</v>
+        <v>0.3064781961043366</v>
       </c>
       <c r="L14">
-        <v>0.9874820979187859</v>
+        <v>0.9874820979187788</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>2.978876188433674</v>
       </c>
       <c r="C15">
-        <v>1.269508845593805</v>
+        <v>1.269508845593634</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07360596900557326</v>
+        <v>0.07360596900554484</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.270005731088474</v>
+        <v>4.270005731088446</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9814625255375091</v>
+        <v>0.9814625255374949</v>
       </c>
       <c r="K15">
-        <v>0.3027200801484895</v>
+        <v>0.3027200801484682</v>
       </c>
       <c r="L15">
-        <v>0.9750779644961156</v>
+        <v>0.9750779644960872</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>2.762439537717114</v>
       </c>
       <c r="C16">
-        <v>1.176410393788046</v>
+        <v>1.176410393788103</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0691288376079271</v>
+        <v>0.06912883760795197</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.010594655898444</v>
+        <v>4.010594655898529</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9099525152198709</v>
+        <v>0.9099525152198282</v>
       </c>
       <c r="K16">
-        <v>0.2814799883241292</v>
+        <v>0.2814799883241221</v>
       </c>
       <c r="L16">
-        <v>0.9049446668813204</v>
+        <v>0.9049446668813346</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.632018653963257</v>
+        <v>2.632018653962689</v>
       </c>
       <c r="C17">
-        <v>1.120371817740818</v>
+        <v>1.120371817740704</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06643537139943589</v>
+        <v>0.0664353713995105</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.854607774621059</v>
+        <v>3.854607774621115</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0.8668761142648407</v>
       </c>
       <c r="K17">
-        <v>0.2686935361001233</v>
+        <v>0.2686935361001446</v>
       </c>
       <c r="L17">
-        <v>0.8627000538574308</v>
+        <v>0.8627000538574237</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557791760584223</v>
+        <v>2.557791760584109</v>
       </c>
       <c r="C18">
-        <v>1.088498418384177</v>
+        <v>1.088498418383892</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06490414936171618</v>
+        <v>0.06490414936173394</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8423645652728595</v>
+        <v>0.8423645652729022</v>
       </c>
       <c r="K18">
-        <v>0.2614209575774069</v>
+        <v>0.2614209575774282</v>
       </c>
       <c r="L18">
-        <v>0.83866346319396</v>
+        <v>0.8386634631939671</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.532788132403084</v>
+        <v>2.532788132403255</v>
       </c>
       <c r="C19">
-        <v>1.07776496616026</v>
+        <v>1.077764966160828</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06438865626288148</v>
+        <v>0.06438865626293122</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8341085032347166</v>
+        <v>0.8341085032347308</v>
       </c>
       <c r="K19">
-        <v>0.2589719569019593</v>
+        <v>0.2589719569019806</v>
       </c>
       <c r="L19">
         <v>0.8305677265983462</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06672020065904505</v>
+        <v>0.06672020065909479</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.871100988694849</v>
+        <v>3.871100988694792</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8714336886495175</v>
+        <v>0.8714336886494891</v>
       </c>
       <c r="K20">
-        <v>0.2700460384201904</v>
+        <v>0.2700460384201619</v>
       </c>
       <c r="L20">
-        <v>0.8671694676611281</v>
+        <v>0.8671694676611352</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.035552146101907</v>
+        <v>3.035552146102077</v>
       </c>
       <c r="C21">
-        <v>1.293908753153858</v>
+        <v>1.29390875315363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07477961895879659</v>
+        <v>0.07477961895882856</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.338041065872204</v>
+        <v>4.338041065872233</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.000193071576405</v>
+        <v>1.000193071576447</v>
       </c>
       <c r="K21">
-        <v>0.3082858592041049</v>
+        <v>0.3082858592041333</v>
       </c>
       <c r="L21">
-        <v>0.9934480216350181</v>
+        <v>0.9934480216350323</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.299042655959283</v>
+        <v>3.29904265595934</v>
       </c>
       <c r="C22">
-        <v>1.407463629088682</v>
+        <v>1.407463629087772</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08024146453370307</v>
+        <v>0.08024146453372083</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.654876211406815</v>
+        <v>4.654876211406901</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.087300508094103</v>
+        <v>1.087300508094089</v>
       </c>
       <c r="K22">
-        <v>0.3341799959055862</v>
+        <v>0.3341799959055933</v>
       </c>
       <c r="L22">
-        <v>1.07887477265632</v>
+        <v>1.078874772656341</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.157515284261819</v>
+        <v>3.157515284262047</v>
       </c>
       <c r="C23">
-        <v>1.346446156403601</v>
+        <v>1.346446156404397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07730674576216856</v>
+        <v>0.07730674576216146</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.484589685522508</v>
+        <v>4.484589685522621</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>1.040507183126323</v>
       </c>
       <c r="K23">
-        <v>0.3202680003839262</v>
+        <v>0.320268000383912</v>
       </c>
       <c r="L23">
-        <v>1.032985468644874</v>
+        <v>1.032985468644881</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.639577515861106</v>
+        <v>2.639577515860992</v>
       </c>
       <c r="C24">
-        <v>1.123618440738539</v>
+        <v>1.123618440738483</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06659137586273545</v>
+        <v>0.06659137586275676</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.863641254099321</v>
+        <v>3.863641254099292</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8693724254273292</v>
+        <v>0.869372425427386</v>
       </c>
       <c r="K24">
-        <v>0.2694343293454153</v>
+        <v>0.2694343293453869</v>
       </c>
       <c r="L24">
-        <v>0.8651480716636897</v>
+        <v>0.8651480716636613</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110325459941578</v>
+        <v>2.110325459941805</v>
       </c>
       <c r="C25">
-        <v>0.896649714951252</v>
+        <v>0.8966497149512236</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05570694682756994</v>
+        <v>0.05570694682749178</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.233490783961187</v>
+        <v>3.233490783961159</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6946685938377186</v>
+        <v>0.6946685938376689</v>
       </c>
       <c r="K25">
-        <v>0.217662477220081</v>
+        <v>0.2176624772200526</v>
       </c>
       <c r="L25">
-        <v>0.6938777575787256</v>
+        <v>0.6938777575787327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.738374394159365</v>
+        <v>1.738374394159734</v>
       </c>
       <c r="C2">
-        <v>0.7375337211492763</v>
+        <v>0.73753372114939</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04812196255232593</v>
+        <v>0.04812196255231882</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.793952082126054</v>
+        <v>2.793952082126111</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5719791178061655</v>
+        <v>0.5719791178061868</v>
       </c>
       <c r="K2">
-        <v>0.1814247261016604</v>
+        <v>0.1814247261016959</v>
       </c>
       <c r="L2">
-        <v>0.5737212325443011</v>
+        <v>0.573721232544294</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.494301497846976</v>
+        <v>1.494301497846834</v>
       </c>
       <c r="C3">
-        <v>0.6332716242683034</v>
+        <v>0.6332716242680192</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04318746639946625</v>
+        <v>0.04318746639944493</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.50736368673644</v>
+        <v>2.507363686736426</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4915034433726007</v>
+        <v>0.4915034433726078</v>
       </c>
       <c r="K3">
-        <v>0.1577341107855297</v>
+        <v>0.157734110785519</v>
       </c>
       <c r="L3">
-        <v>0.4950058641946882</v>
+        <v>0.4950058641947166</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.347532154582154</v>
+        <v>1.347532154582382</v>
       </c>
       <c r="C4">
-        <v>0.5706204945522302</v>
+        <v>0.5706204945518039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04024174568047911</v>
+        <v>0.04024174568047023</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.335849409253925</v>
+        <v>2.335849409253882</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4431199380235782</v>
+        <v>0.4431199380236066</v>
       </c>
       <c r="K4">
-        <v>0.1435302157073011</v>
+        <v>0.1435302157073082</v>
       </c>
       <c r="L4">
-        <v>0.447735197296943</v>
+        <v>0.4477351972969288</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.288387427566107</v>
+        <v>1.28838742756605</v>
       </c>
       <c r="C5">
-        <v>0.5453809641120984</v>
+        <v>0.545380964111871</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03906015672363061</v>
+        <v>0.0390601567235862</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4236238586264989</v>
+        <v>0.4236238586265202</v>
       </c>
       <c r="K5">
-        <v>0.137816687288641</v>
+        <v>0.1378166872886162</v>
       </c>
       <c r="L5">
-        <v>0.4287019622202024</v>
+        <v>0.4287019622202237</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.278603571307769</v>
+        <v>1.278603571307855</v>
       </c>
       <c r="C6">
-        <v>0.5412061241706567</v>
+        <v>0.5412061241704578</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0388650272070965</v>
+        <v>0.03886502720706098</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.255536730588204</v>
+        <v>2.25553673058819</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4203988292316723</v>
+        <v>0.4203988292316936</v>
       </c>
       <c r="K6">
-        <v>0.1368721579215126</v>
+        <v>0.1368721579215304</v>
       </c>
       <c r="L6">
-        <v>0.4255543871551666</v>
+        <v>0.4255543871551595</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346731956420825</v>
+        <v>1.346731956420854</v>
       </c>
       <c r="C7">
-        <v>0.5702789911925379</v>
+        <v>0.5702789911923105</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04022573709369226</v>
+        <v>0.04022573709372423</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.334916150153063</v>
+        <v>2.33491615015302</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4428561615643716</v>
+        <v>0.4428561615643929</v>
       </c>
       <c r="K7">
-        <v>0.1434528729749971</v>
+        <v>0.1434528729749935</v>
       </c>
       <c r="L7">
         <v>0.4474776234629587</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.653504726100692</v>
+        <v>1.653504726100522</v>
       </c>
       <c r="C8">
-        <v>0.7012674417927656</v>
+        <v>0.7012674417926803</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.694118358418706</v>
+        <v>2.69411835841872</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5439933574522016</v>
+        <v>0.5439933574522087</v>
       </c>
       <c r="K8">
-        <v>0.1731779601485002</v>
+        <v>0.1731779601484966</v>
       </c>
       <c r="L8">
         <v>0.5463366355669947</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.285395920566771</v>
+        <v>2.285395920566998</v>
       </c>
       <c r="C9">
         <v>0.9716513374604574</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05929762682182016</v>
+        <v>0.05929762682185569</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.441379286883745</v>
+        <v>3.441379286883773</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7524408417559343</v>
+        <v>0.7524408417558917</v>
       </c>
       <c r="K9">
-        <v>0.234764452709662</v>
+        <v>0.234764452709598</v>
       </c>
       <c r="L9">
-        <v>0.750498992843319</v>
+        <v>0.7504989928433545</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.777433716611711</v>
+        <v>2.777433716611768</v>
       </c>
       <c r="C10">
         <v>1.182855923448699</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06943872637462079</v>
+        <v>0.06943872637462789</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9149055864579339</v>
+        <v>0.9149055864579196</v>
       </c>
       <c r="K10">
-        <v>0.2829506454762125</v>
+        <v>0.2829506454761841</v>
       </c>
       <c r="L10">
-        <v>0.9098022698625812</v>
+        <v>0.9098022698625883</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.009816313045917</v>
+        <v>3.00981631304569</v>
       </c>
       <c r="C11">
-        <v>1.282827962860722</v>
+        <v>1.282827962860949</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07424662067203514</v>
+        <v>0.07424662067211329</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9916875090481483</v>
+        <v>0.9916875090481625</v>
       </c>
       <c r="K11">
-        <v>0.3057583226977911</v>
+        <v>0.3057583226977627</v>
       </c>
       <c r="L11">
-        <v>0.9851061736303777</v>
+        <v>0.985106173630399</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>3.099294880144896</v>
       </c>
       <c r="C12">
-        <v>1.321361679659674</v>
+        <v>1.321361679659276</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07610015247500712</v>
+        <v>0.07610015247499646</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.414609581380375</v>
+        <v>4.414609581380404</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.021261589652951</v>
+        <v>1.021261589652923</v>
       </c>
       <c r="K12">
-        <v>0.3145473827812921</v>
+        <v>0.3145473827813134</v>
       </c>
       <c r="L12">
-        <v>1.014110826419575</v>
+        <v>1.014110826419568</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.079953781964889</v>
+        <v>3.079953781965003</v>
       </c>
       <c r="C13">
         <v>1.313030596051021</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07569941230056898</v>
+        <v>0.07569941230057964</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.014868606080981</v>
+        <v>1.014868606081009</v>
       </c>
       <c r="K13">
-        <v>0.3126472917755407</v>
+        <v>0.3126472917755763</v>
       </c>
       <c r="L13">
         <v>1.007840986114147</v>
@@ -871,13 +871,13 @@
         <v>3.017146513408818</v>
       </c>
       <c r="C14">
-        <v>1.28598385840354</v>
+        <v>1.285983858403199</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07439842195254442</v>
+        <v>0.07439842195248758</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.315941804769011</v>
+        <v>4.315941804768983</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9941100591468768</v>
+        <v>0.994110059146891</v>
       </c>
       <c r="K14">
-        <v>0.3064781961043366</v>
+        <v>0.3064781961044005</v>
       </c>
       <c r="L14">
-        <v>0.9874820979187788</v>
+        <v>0.9874820979187859</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>2.978876188433674</v>
       </c>
       <c r="C15">
-        <v>1.269508845593634</v>
+        <v>1.269508845593805</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07360596900554484</v>
+        <v>0.07360596900557326</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.270005731088446</v>
+        <v>4.270005731088474</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9814625255374949</v>
+        <v>0.9814625255375091</v>
       </c>
       <c r="K15">
-        <v>0.3027200801484682</v>
+        <v>0.3027200801484895</v>
       </c>
       <c r="L15">
-        <v>0.9750779644960872</v>
+        <v>0.9750779644961156</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>2.762439537717114</v>
       </c>
       <c r="C16">
-        <v>1.176410393788103</v>
+        <v>1.176410393788046</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06912883760795197</v>
+        <v>0.0691288376079271</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.010594655898529</v>
+        <v>4.010594655898444</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9099525152198282</v>
+        <v>0.9099525152198709</v>
       </c>
       <c r="K16">
-        <v>0.2814799883241221</v>
+        <v>0.2814799883241292</v>
       </c>
       <c r="L16">
-        <v>0.9049446668813346</v>
+        <v>0.9049446668813204</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.632018653962689</v>
+        <v>2.632018653963257</v>
       </c>
       <c r="C17">
-        <v>1.120371817740704</v>
+        <v>1.120371817740818</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0664353713995105</v>
+        <v>0.06643537139943589</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.854607774621115</v>
+        <v>3.854607774621059</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0.8668761142648407</v>
       </c>
       <c r="K17">
-        <v>0.2686935361001446</v>
+        <v>0.2686935361001233</v>
       </c>
       <c r="L17">
-        <v>0.8627000538574237</v>
+        <v>0.8627000538574308</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557791760584109</v>
+        <v>2.557791760584223</v>
       </c>
       <c r="C18">
-        <v>1.088498418383892</v>
+        <v>1.088498418384177</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06490414936173394</v>
+        <v>0.06490414936171618</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8423645652729022</v>
+        <v>0.8423645652728595</v>
       </c>
       <c r="K18">
-        <v>0.2614209575774282</v>
+        <v>0.2614209575774069</v>
       </c>
       <c r="L18">
-        <v>0.8386634631939671</v>
+        <v>0.83866346319396</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.532788132403255</v>
+        <v>2.532788132403084</v>
       </c>
       <c r="C19">
-        <v>1.077764966160828</v>
+        <v>1.07776496616026</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06438865626293122</v>
+        <v>0.06438865626288148</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8341085032347308</v>
+        <v>0.8341085032347166</v>
       </c>
       <c r="K19">
-        <v>0.2589719569019806</v>
+        <v>0.2589719569019593</v>
       </c>
       <c r="L19">
         <v>0.8305677265983462</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06672020065909479</v>
+        <v>0.06672020065904505</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.871100988694792</v>
+        <v>3.871100988694849</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8714336886494891</v>
+        <v>0.8714336886495175</v>
       </c>
       <c r="K20">
-        <v>0.2700460384201619</v>
+        <v>0.2700460384201904</v>
       </c>
       <c r="L20">
-        <v>0.8671694676611352</v>
+        <v>0.8671694676611281</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.035552146102077</v>
+        <v>3.035552146101907</v>
       </c>
       <c r="C21">
-        <v>1.29390875315363</v>
+        <v>1.293908753153858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07477961895882856</v>
+        <v>0.07477961895879659</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.338041065872233</v>
+        <v>4.338041065872204</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.000193071576447</v>
+        <v>1.000193071576405</v>
       </c>
       <c r="K21">
-        <v>0.3082858592041333</v>
+        <v>0.3082858592041049</v>
       </c>
       <c r="L21">
-        <v>0.9934480216350323</v>
+        <v>0.9934480216350181</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.29904265595934</v>
+        <v>3.299042655959283</v>
       </c>
       <c r="C22">
-        <v>1.407463629087772</v>
+        <v>1.407463629088682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08024146453372083</v>
+        <v>0.08024146453370307</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.654876211406901</v>
+        <v>4.654876211406815</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.087300508094089</v>
+        <v>1.087300508094103</v>
       </c>
       <c r="K22">
-        <v>0.3341799959055933</v>
+        <v>0.3341799959055862</v>
       </c>
       <c r="L22">
-        <v>1.078874772656341</v>
+        <v>1.07887477265632</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.157515284262047</v>
+        <v>3.157515284261819</v>
       </c>
       <c r="C23">
-        <v>1.346446156404397</v>
+        <v>1.346446156403601</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07730674576216146</v>
+        <v>0.07730674576216856</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.484589685522621</v>
+        <v>4.484589685522508</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>1.040507183126323</v>
       </c>
       <c r="K23">
-        <v>0.320268000383912</v>
+        <v>0.3202680003839262</v>
       </c>
       <c r="L23">
-        <v>1.032985468644881</v>
+        <v>1.032985468644874</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.639577515860992</v>
+        <v>2.639577515861106</v>
       </c>
       <c r="C24">
-        <v>1.123618440738483</v>
+        <v>1.123618440738539</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06659137586275676</v>
+        <v>0.06659137586273545</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.863641254099292</v>
+        <v>3.863641254099321</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.869372425427386</v>
+        <v>0.8693724254273292</v>
       </c>
       <c r="K24">
-        <v>0.2694343293453869</v>
+        <v>0.2694343293454153</v>
       </c>
       <c r="L24">
-        <v>0.8651480716636613</v>
+        <v>0.8651480716636897</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110325459941805</v>
+        <v>2.110325459941578</v>
       </c>
       <c r="C25">
-        <v>0.8966497149512236</v>
+        <v>0.896649714951252</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05570694682749178</v>
+        <v>0.05570694682756994</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.233490783961159</v>
+        <v>3.233490783961187</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6946685938376689</v>
+        <v>0.6946685938377186</v>
       </c>
       <c r="K25">
-        <v>0.2176624772200526</v>
+        <v>0.217662477220081</v>
       </c>
       <c r="L25">
-        <v>0.6938777575787327</v>
+        <v>0.6938777575787256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.738374394159734</v>
+        <v>1.721763322172592</v>
       </c>
       <c r="C2">
-        <v>0.73753372114939</v>
+        <v>0.7291373920436115</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04812196255231882</v>
+        <v>0.04700743953318209</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000804558234357457</v>
       </c>
       <c r="H2">
-        <v>2.793952082126111</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.816831145703759</v>
       </c>
       <c r="J2">
-        <v>0.5719791178061868</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1814247261016959</v>
+        <v>0.5661579498667209</v>
       </c>
       <c r="L2">
-        <v>0.573721232544294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1807112845118866</v>
+      </c>
+      <c r="M2">
+        <v>0.5706625114645618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.494301497846834</v>
+        <v>1.480969075979601</v>
       </c>
       <c r="C3">
-        <v>0.6332716242680192</v>
+        <v>0.6265639544590158</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04318746639944493</v>
+        <v>0.04203826911788511</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008141373573766764</v>
       </c>
       <c r="H3">
-        <v>2.507363686736426</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.533266349307922</v>
       </c>
       <c r="J3">
-        <v>0.4915034433726078</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.157734110785519</v>
+        <v>0.4868412330369196</v>
       </c>
       <c r="L3">
-        <v>0.4950058641947166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1571727777248064</v>
+      </c>
+      <c r="M3">
+        <v>0.4927470276341737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.347532154582382</v>
+        <v>1.336212039299539</v>
       </c>
       <c r="C4">
-        <v>0.5706204945518039</v>
+        <v>0.5649463756442401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04024174568047023</v>
+        <v>0.03906932724642331</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008201462428434629</v>
       </c>
       <c r="H4">
-        <v>2.335849409253882</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.363567262917613</v>
       </c>
       <c r="J4">
-        <v>0.4431199380236066</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1435302157073082</v>
+        <v>0.4391686608147793</v>
       </c>
       <c r="L4">
-        <v>0.4477351972969288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1430590322776553</v>
+      </c>
+      <c r="M4">
+        <v>0.4459624377270046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.28838742756605</v>
+        <v>1.277889131860547</v>
       </c>
       <c r="C5">
-        <v>0.545380964111871</v>
+        <v>0.5401282456796537</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0390601567235862</v>
+        <v>0.03787780879537017</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008226293347463662</v>
       </c>
       <c r="H5">
-        <v>2.26692674585513</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.295376446054703</v>
       </c>
       <c r="J5">
-        <v>0.4236238586265202</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1378166872886162</v>
+        <v>0.4199628271774003</v>
       </c>
       <c r="L5">
-        <v>0.4287019622202237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1373815826416838</v>
+      </c>
+      <c r="M5">
+        <v>0.4271265940409705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.278603571307855</v>
+        <v>1.268241899410214</v>
       </c>
       <c r="C6">
-        <v>0.5412061241704578</v>
+        <v>0.5360234203987204</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03886502720706098</v>
+        <v>0.03768100280222342</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008230437959460508</v>
       </c>
       <c r="H6">
-        <v>2.25553673058819</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.284107546745034</v>
       </c>
       <c r="J6">
-        <v>0.4203988292316936</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1368721579215304</v>
+        <v>0.4167860440325768</v>
       </c>
       <c r="L6">
-        <v>0.4255543871551595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1364430086187163</v>
+      </c>
+      <c r="M6">
+        <v>0.424011769636742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346731956420854</v>
+        <v>1.335422914801995</v>
       </c>
       <c r="C7">
-        <v>0.5702789911923105</v>
+        <v>0.5646105532590013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04022573709372423</v>
+        <v>0.03905318661387902</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008201795883353192</v>
       </c>
       <c r="H7">
-        <v>2.33491615015302</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.362643902459084</v>
       </c>
       <c r="J7">
-        <v>0.4428561615643929</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1434528729749935</v>
+        <v>0.4389087956818898</v>
       </c>
       <c r="L7">
-        <v>0.4474776234629587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1429821785866281</v>
+      </c>
+      <c r="M7">
+        <v>0.4457075280577953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.653504726100522</v>
+        <v>1.63802558181257</v>
       </c>
       <c r="C8">
-        <v>0.7012674417926803</v>
+        <v>0.6934547210887274</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04640162710627749</v>
+        <v>0.04527556156010704</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008078362319418207</v>
       </c>
       <c r="H8">
-        <v>2.69411835841872</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.718050160274743</v>
       </c>
       <c r="J8">
-        <v>0.5439933574522087</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1731779601484966</v>
+        <v>0.5385723912417788</v>
       </c>
       <c r="L8">
-        <v>0.5463366355669947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1725177415171046</v>
+      </c>
+      <c r="M8">
+        <v>0.5435551400019065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.285395920566998</v>
+        <v>2.261626540427756</v>
       </c>
       <c r="C9">
-        <v>0.9716513374604574</v>
+        <v>0.9595517429033009</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05929762682185569</v>
+        <v>0.05824634836015719</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007845179179402172</v>
       </c>
       <c r="H9">
-        <v>3.441379286883773</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.457405265322919</v>
       </c>
       <c r="J9">
-        <v>0.7524408417558917</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.234764452709598</v>
+        <v>0.7440872598378689</v>
       </c>
       <c r="L9">
-        <v>0.7504989928433545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2336983236337886</v>
+      </c>
+      <c r="M9">
+        <v>0.7456628325023757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.777433716611768</v>
+        <v>2.7473238179129</v>
       </c>
       <c r="C10">
-        <v>1.182855923448699</v>
+        <v>1.167462223817779</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06943872637462789</v>
+        <v>0.0684305566361374</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007677307037294483</v>
       </c>
       <c r="H10">
-        <v>4.02854446991023</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.038253895782475</v>
       </c>
       <c r="J10">
-        <v>0.9149055864579196</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2829506454761841</v>
+        <v>0.9043074455378246</v>
       </c>
       <c r="L10">
-        <v>0.9098022698625883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2815508563833333</v>
+      </c>
+      <c r="M10">
+        <v>0.9033598389495197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.00981631304569</v>
+        <v>2.976715053917474</v>
       </c>
       <c r="C11">
-        <v>1.282827962860949</v>
+        <v>1.265876914436717</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07424662067211329</v>
+        <v>0.07325492335911932</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007601165004999643</v>
       </c>
       <c r="H11">
-        <v>4.307141824335815</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.313802037900814</v>
       </c>
       <c r="J11">
-        <v>0.9916875090481625</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3057583226977627</v>
+        <v>0.9800301862740781</v>
       </c>
       <c r="L11">
-        <v>0.985106173630399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3041947771525386</v>
+      </c>
+      <c r="M11">
+        <v>0.9778964626932591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.099294880144896</v>
+        <v>3.065039813344356</v>
       </c>
       <c r="C12">
-        <v>1.321361679659276</v>
+        <v>1.303809506726168</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07610015247499646</v>
+        <v>0.07511417803129916</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007572312456230004</v>
       </c>
       <c r="H12">
-        <v>4.414609581380404</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.420082882259294</v>
       </c>
       <c r="J12">
-        <v>1.021261589652923</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3145473827813134</v>
+        <v>1.009195709123219</v>
       </c>
       <c r="L12">
-        <v>1.014110826419568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3129196426089607</v>
+      </c>
+      <c r="M12">
+        <v>1.006603629173526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.079953781965003</v>
+        <v>3.045948248456909</v>
       </c>
       <c r="C13">
-        <v>1.313030596051021</v>
+        <v>1.295608446503479</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07569941230057964</v>
+        <v>0.07471222942636402</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007578528130938861</v>
       </c>
       <c r="H13">
-        <v>4.391371314444399</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.397101800094362</v>
       </c>
       <c r="J13">
-        <v>1.014868606081009</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3126472917755763</v>
+        <v>1.002891084535932</v>
       </c>
       <c r="L13">
-        <v>1.007840986114147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3110334827208447</v>
+      </c>
+      <c r="M13">
+        <v>1.000398197149927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.017146513408818</v>
+        <v>2.983950788651612</v>
       </c>
       <c r="C14">
-        <v>1.285983858403199</v>
+        <v>1.268983602547451</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07439842195248758</v>
+        <v>0.07340720620592478</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007598791999690125</v>
       </c>
       <c r="H14">
-        <v>4.315941804768983</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.322505061996367</v>
       </c>
       <c r="J14">
-        <v>0.994110059146891</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3064781961044005</v>
+        <v>0.9824192867770449</v>
       </c>
       <c r="L14">
-        <v>0.9874820979187859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3049094160275629</v>
+      </c>
+      <c r="M14">
+        <v>0.9802480625567327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.978876188433674</v>
+        <v>2.946173564362994</v>
       </c>
       <c r="C15">
-        <v>1.269508845593805</v>
+        <v>1.252765430212435</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07360596900557326</v>
+        <v>0.07261221378738369</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007611200030413349</v>
       </c>
       <c r="H15">
-        <v>4.270005731088474</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.277074652791555</v>
       </c>
       <c r="J15">
-        <v>0.9814625255375091</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3027200801484895</v>
+        <v>0.9699463559767025</v>
       </c>
       <c r="L15">
-        <v>0.9750779644961156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3011785816919144</v>
+      </c>
+      <c r="M15">
+        <v>0.9679708374337039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.762439537717114</v>
+        <v>2.732522522942929</v>
       </c>
       <c r="C16">
-        <v>1.176410393788046</v>
+        <v>1.161117050675898</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0691288376079271</v>
+        <v>0.06811952313159964</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007682283394646219</v>
       </c>
       <c r="H16">
-        <v>4.010594655898444</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.020499256565813</v>
       </c>
       <c r="J16">
-        <v>0.9099525152198709</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2814799883241292</v>
+        <v>0.8994226673490573</v>
       </c>
       <c r="L16">
-        <v>0.9049446668813204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2800906230640123</v>
+      </c>
+      <c r="M16">
+        <v>0.8985515088582048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.632018653963257</v>
+        <v>2.603779467829099</v>
       </c>
       <c r="C17">
-        <v>1.120371817740818</v>
+        <v>1.105951087516814</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06643537139943589</v>
+        <v>0.06541566764270001</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007725913995943846</v>
       </c>
       <c r="H17">
-        <v>3.854607774621059</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.866202454337753</v>
       </c>
       <c r="J17">
-        <v>0.8668761142648407</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2686935361001233</v>
+        <v>0.8569402992984294</v>
       </c>
       <c r="L17">
-        <v>0.8627000538574308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2673941363414869</v>
+      </c>
+      <c r="M17">
+        <v>0.8567344470697833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.557791760584223</v>
+        <v>2.530507946852708</v>
       </c>
       <c r="C18">
-        <v>1.088498418384177</v>
+        <v>1.074574261989369</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06490414936171618</v>
+        <v>0.06387817923140204</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007751033749648373</v>
       </c>
       <c r="H18">
-        <v>3.765948405794347</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.778499124215188</v>
       </c>
       <c r="J18">
-        <v>0.8423645652728595</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2614209575774069</v>
+        <v>0.8327669759426897</v>
       </c>
       <c r="L18">
-        <v>0.83866346319396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2601722097337884</v>
+      </c>
+      <c r="M18">
+        <v>0.8329404491817627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.532788132403084</v>
+        <v>2.505826282818987</v>
       </c>
       <c r="C19">
-        <v>1.07776496616026</v>
+        <v>1.064008104738946</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06438865626288148</v>
+        <v>0.06336051620100491</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007759544524898331</v>
       </c>
       <c r="H19">
-        <v>3.73610310711905</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.748974955499136</v>
       </c>
       <c r="J19">
-        <v>0.8341085032347166</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2589719569019593</v>
+        <v>0.824624892942623</v>
       </c>
       <c r="L19">
-        <v>0.8305677265983462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2577401834666802</v>
+      </c>
+      <c r="M19">
+        <v>0.8249263245874374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.645818966981267</v>
+        <v>2.61740221092947</v>
       </c>
       <c r="C20">
-        <v>1.126299333204997</v>
+        <v>1.111786282663331</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06672020065904505</v>
+        <v>0.0657016333596232</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007721267246484123</v>
       </c>
       <c r="H20">
-        <v>3.871100988694849</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.882517463402166</v>
       </c>
       <c r="J20">
-        <v>0.8714336886495175</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2700460384201904</v>
+        <v>0.8614350075519468</v>
       </c>
       <c r="L20">
-        <v>0.8671694676611281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2687371779043488</v>
+      </c>
+      <c r="M20">
+        <v>0.8611587022074829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.035552146101907</v>
+        <v>3.002119183603781</v>
       </c>
       <c r="C21">
-        <v>1.293908753153858</v>
+        <v>1.276784912695746</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07477961895879659</v>
+        <v>0.07378960232789211</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007592840981840479</v>
       </c>
       <c r="H21">
-        <v>4.338041065872204</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.344360656270965</v>
       </c>
       <c r="J21">
-        <v>1.000193071576405</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3082858592041049</v>
+        <v>0.9884182948318312</v>
       </c>
       <c r="L21">
-        <v>0.9934480216350181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3067039165132641</v>
+      </c>
+      <c r="M21">
+        <v>0.9861528737549676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.299042655959283</v>
+        <v>3.262205005675355</v>
       </c>
       <c r="C22">
-        <v>1.407463629088682</v>
+        <v>1.388565214783171</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08024146453370307</v>
+        <v>0.07926706384509075</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007508764716741341</v>
       </c>
       <c r="H22">
-        <v>4.654876211406815</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.657672306834627</v>
       </c>
       <c r="J22">
-        <v>1.087300508094103</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3341799959055862</v>
+        <v>1.074320138923824</v>
       </c>
       <c r="L22">
-        <v>1.07887477265632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3324065508627783</v>
+      </c>
+      <c r="M22">
+        <v>1.070698708203352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.157515284261819</v>
+        <v>3.12250856625235</v>
       </c>
       <c r="C23">
-        <v>1.346446156403601</v>
+        <v>1.32850226454724</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07730674576216856</v>
+        <v>0.07632431463309786</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000755367009648733</v>
       </c>
       <c r="H23">
-        <v>4.484589685522508</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.489286673948357</v>
       </c>
       <c r="J23">
-        <v>1.040507183126323</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3202680003839262</v>
+        <v>1.028175144268147</v>
       </c>
       <c r="L23">
-        <v>1.032985468644874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3185981385404588</v>
+      </c>
+      <c r="M23">
+        <v>1.025284024018916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.639577515861106</v>
+        <v>2.611241067522485</v>
       </c>
       <c r="C24">
-        <v>1.123618440738539</v>
+        <v>1.109147143895939</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06659137586273545</v>
+        <v>0.06557229568038281</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007723367927050751</v>
       </c>
       <c r="H24">
-        <v>3.863641254099321</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.875138343410669</v>
       </c>
       <c r="J24">
-        <v>0.8693724254273292</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2694343293454153</v>
+        <v>0.8594021762178272</v>
       </c>
       <c r="L24">
-        <v>0.8651480716636897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2681297493389536</v>
+      </c>
+      <c r="M24">
+        <v>0.859157732327553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110325459941578</v>
+        <v>2.08882749331093</v>
       </c>
       <c r="C25">
-        <v>0.896649714951252</v>
+        <v>0.8857273122304434</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05570694682756994</v>
+        <v>0.05463735568330463</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007907498587771815</v>
       </c>
       <c r="H25">
-        <v>3.233490783961187</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.251725843861806</v>
       </c>
       <c r="J25">
-        <v>0.6946685938377186</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.217662477220081</v>
+        <v>0.6871188201778011</v>
       </c>
       <c r="L25">
-        <v>0.6938777575787256</v>
+        <v>0.2167111567726536</v>
+      </c>
+      <c r="M25">
+        <v>0.6896099546671621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.721763322172592</v>
+        <v>2.199417287284462</v>
       </c>
       <c r="C2">
-        <v>0.7291373920436115</v>
+        <v>0.4830110343087028</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04700743953318209</v>
+        <v>0.2093849336772564</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000804558234357457</v>
+        <v>0.0007875168214557336</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.816831145703759</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5661579498667209</v>
+        <v>0.598001574449242</v>
       </c>
       <c r="L2">
-        <v>0.1807112845118866</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5706625114645618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9110264850868646</v>
+      </c>
+      <c r="N2">
+        <v>0.8079960281476346</v>
+      </c>
+      <c r="O2">
+        <v>1.012000522243653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.480969075979601</v>
+        <v>1.898364382056855</v>
       </c>
       <c r="C3">
-        <v>0.6265639544590158</v>
+        <v>0.4165128741801425</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04203826911788511</v>
+        <v>0.1812263037039941</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008141373573766764</v>
+        <v>0.000794857182587847</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.533266349307922</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4868412330369196</v>
+        <v>0.5156211726549671</v>
       </c>
       <c r="L3">
-        <v>0.1571727777248064</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4927470276341737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7855180918181262</v>
+      </c>
+      <c r="N3">
+        <v>0.8525685631588331</v>
+      </c>
+      <c r="O3">
+        <v>0.9238277723542438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336212039299539</v>
+        <v>1.71616378191095</v>
       </c>
       <c r="C4">
-        <v>0.5649463756442401</v>
+        <v>0.3762310509066538</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03906932724642331</v>
+        <v>0.1643464811379829</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008201462428434629</v>
+        <v>0.0007994787858606518</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.363567262917613</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4391686608147793</v>
+        <v>0.4657497453746444</v>
       </c>
       <c r="L4">
-        <v>0.1430590322776553</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4459624377270046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7097741223657081</v>
+      </c>
+      <c r="N4">
+        <v>0.8816982416984729</v>
+      </c>
+      <c r="O4">
+        <v>0.8723952839559175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.277889131860547</v>
+        <v>1.642485342037475</v>
       </c>
       <c r="C5">
-        <v>0.5401282456796537</v>
+        <v>0.3599307591923093</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03787780879537017</v>
+        <v>0.1575575728380514</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008226293347463662</v>
+        <v>0.0008013923466565904</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.295376446054703</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4199628271774003</v>
+        <v>0.4455786406424522</v>
       </c>
       <c r="L5">
-        <v>0.1373815826416838</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4271265940409705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6791928484703433</v>
+      </c>
+      <c r="N5">
+        <v>0.8939885606760782</v>
+      </c>
+      <c r="O5">
+        <v>0.852051749502877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.268241899410214</v>
+        <v>1.63028285228404</v>
       </c>
       <c r="C6">
-        <v>0.5360234203987204</v>
+        <v>0.3572304111265794</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03768100280222342</v>
+        <v>0.1564353343115314</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008230437959460508</v>
+        <v>0.000801711956299851</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.284107546745034</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4167860440325768</v>
+        <v>0.4422376785672029</v>
       </c>
       <c r="L6">
-        <v>0.1364430086187163</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.424011769636742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6741307762741471</v>
+      </c>
+      <c r="N6">
+        <v>0.8960540648057105</v>
+      </c>
+      <c r="O6">
+        <v>0.8487091081889773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335422914801995</v>
+        <v>1.715167942687088</v>
       </c>
       <c r="C7">
-        <v>0.5646105532590013</v>
+        <v>0.3760107833133191</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03905318661387902</v>
+        <v>0.1642545768404133</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008201795883353192</v>
+        <v>0.0007995044687149721</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.362643902459084</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4389087956818898</v>
+        <v>0.4654771294900613</v>
       </c>
       <c r="L7">
-        <v>0.1429821785866281</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4457075280577953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7093605973845314</v>
+      </c>
+      <c r="N7">
+        <v>0.881862323133241</v>
+      </c>
+      <c r="O7">
+        <v>0.8721185131196521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.63802558181257</v>
+        <v>2.095004551007719</v>
       </c>
       <c r="C8">
-        <v>0.6934547210887274</v>
+        <v>0.4599541727039309</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04527556156010704</v>
+        <v>0.199582453313198</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008078362319418207</v>
+        <v>0.0007900248753762689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.718050160274743</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5385723912417788</v>
+        <v>0.5694325222881389</v>
       </c>
       <c r="L8">
-        <v>0.1725177415171046</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5435551400019065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8674481735273218</v>
+      </c>
+      <c r="N8">
+        <v>0.8229842879801481</v>
+      </c>
+      <c r="O8">
+        <v>0.9809962059912891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.261626540427756</v>
+        <v>2.865668325877721</v>
       </c>
       <c r="C9">
-        <v>0.9595517429033009</v>
+        <v>0.6300746494191003</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05824634836015719</v>
+        <v>0.2727770601059589</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>0.0007845179179402172</v>
+        <v>0.0007722748128136064</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.457405265322919</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7440872598378689</v>
+        <v>0.7802673298043814</v>
       </c>
       <c r="L9">
-        <v>0.2336983236337886</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7456628325023757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.190257633801409</v>
+      </c>
+      <c r="N9">
+        <v>0.7226647997534812</v>
+      </c>
+      <c r="O9">
+        <v>1.219211088765434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.7473238179129</v>
+        <v>3.455119508380221</v>
       </c>
       <c r="C10">
-        <v>1.167462223817779</v>
+        <v>0.7602400193046321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0684305566361374</v>
+        <v>0.329987439503995</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007677307037294483</v>
+        <v>0.0007596370836924817</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.038253895782475</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9043074455378246</v>
+        <v>0.9415234025820354</v>
       </c>
       <c r="L10">
-        <v>0.2815508563833333</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9033598389495197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.438893775590543</v>
+      </c>
+      <c r="N10">
+        <v>0.6599964758929246</v>
+      </c>
+      <c r="O10">
+        <v>1.414341404360613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.976715053917474</v>
+        <v>3.730256661614703</v>
       </c>
       <c r="C11">
-        <v>1.265876914436717</v>
+        <v>0.8210522368165414</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07325492335911932</v>
+        <v>0.3570314223249866</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007601165004999643</v>
+        <v>0.0007539477314225342</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.313802037900814</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9800301862740781</v>
+        <v>1.016804906179303</v>
       </c>
       <c r="L11">
-        <v>0.3041947771525386</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9778964626932591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.555442317969721</v>
+      </c>
+      <c r="N11">
+        <v>0.6343514432742055</v>
+      </c>
+      <c r="O11">
+        <v>1.508781874643304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.065039813344356</v>
+        <v>3.835634836626127</v>
       </c>
       <c r="C12">
-        <v>1.303809506726168</v>
+        <v>0.8443558721930629</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07511417803129916</v>
+        <v>0.367445100844094</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007572312456230004</v>
+        <v>0.0007517992571735714</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.420082882259294</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.009195709123219</v>
+        <v>1.045640960643595</v>
       </c>
       <c r="L12">
-        <v>0.3129196426089607</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.006603629173526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.600162583125098</v>
+      </c>
+      <c r="N12">
+        <v>0.6250976807127913</v>
+      </c>
+      <c r="O12">
+        <v>1.545485780323389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.045948248456909</v>
+        <v>3.812883654071925</v>
       </c>
       <c r="C13">
-        <v>1.295608446503479</v>
+        <v>0.8393239799016499</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07471222942636402</v>
+        <v>0.3651941906554299</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>0.0007578528130938861</v>
+        <v>0.0007522617498004181</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.397101800094362</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.002891084535932</v>
+        <v>1.039415088334664</v>
       </c>
       <c r="L13">
-        <v>0.3110334827208447</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.000398197149927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.590503638730837</v>
+      </c>
+      <c r="N13">
+        <v>0.6270695031463589</v>
+      </c>
+      <c r="O13">
+        <v>1.537536893863347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.983950788651612</v>
+        <v>3.738901202317777</v>
       </c>
       <c r="C14">
-        <v>1.268983602547451</v>
+        <v>0.822963639750526</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07340720620592478</v>
+        <v>0.3578845373410502</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007598791999690125</v>
+        <v>0.000753770871944149</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.322505061996367</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9824192867770449</v>
+        <v>1.019170359459807</v>
       </c>
       <c r="L14">
-        <v>0.3049094160275629</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9802480625567327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.55910917542721</v>
+      </c>
+      <c r="N14">
+        <v>0.6335806783417581</v>
+      </c>
+      <c r="O14">
+        <v>1.511781883101975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.946173564362994</v>
+        <v>3.693745628197348</v>
       </c>
       <c r="C15">
-        <v>1.252765430212435</v>
+        <v>0.8129797737578031</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07261221378738369</v>
+        <v>0.3534304957199907</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007611200030413349</v>
+        <v>0.0007546959456950726</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.277074652791555</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9699463559767025</v>
+        <v>1.006814322387143</v>
       </c>
       <c r="L15">
-        <v>0.3011785816919144</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9679708374337039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.53995836103195</v>
+      </c>
+      <c r="N15">
+        <v>0.6376299986556972</v>
+      </c>
+      <c r="O15">
+        <v>1.496132792133878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.732522522942929</v>
+        <v>3.437294564331239</v>
       </c>
       <c r="C16">
-        <v>1.161117050675898</v>
+        <v>0.7563017214426679</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06811952313159964</v>
+        <v>0.3282427111640445</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007682283394646219</v>
+        <v>0.0007600098799616991</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.020499256565813</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8994226673490573</v>
+        <v>0.9366465899130816</v>
       </c>
       <c r="L16">
-        <v>0.2800906230640123</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8985515088582048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.431353819801657</v>
+      </c>
+      <c r="N16">
+        <v>0.6617338246284561</v>
+      </c>
+      <c r="O16">
+        <v>1.4082940290198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.603779467829099</v>
+        <v>3.281884870494821</v>
       </c>
       <c r="C17">
-        <v>1.105951087516814</v>
+        <v>0.7219716062377302</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06541566764270001</v>
+        <v>0.3130692938001403</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007725913995943846</v>
+        <v>0.0007632833177780635</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.866202454337753</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8569402992984294</v>
+        <v>0.8941287979517085</v>
       </c>
       <c r="L17">
-        <v>0.2673941363414869</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8567344470697833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.365671113646343</v>
+      </c>
+      <c r="N17">
+        <v>0.6772847261255066</v>
+      </c>
+      <c r="O17">
+        <v>1.355945342650458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.530507946852708</v>
+        <v>3.193143190100329</v>
       </c>
       <c r="C18">
-        <v>1.074574261989369</v>
+        <v>0.7023733152890372</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06387817923140204</v>
+        <v>0.3044360643708544</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007751033749648373</v>
+        <v>0.0007651718982858545</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.778499124215188</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8327669759426897</v>
+        <v>0.8698514386721143</v>
       </c>
       <c r="L18">
-        <v>0.2601722097337884</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8329404491817627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.328210104601013</v>
+      </c>
+      <c r="N18">
+        <v>0.6864956093255188</v>
+      </c>
+      <c r="O18">
+        <v>1.326361487083219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.505826282818987</v>
+        <v>3.163202480059056</v>
       </c>
       <c r="C19">
-        <v>1.064008104738946</v>
+        <v>0.6957617163300256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06336051620100491</v>
+        <v>0.3015284242742524</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007759544524898331</v>
+        <v>0.0007658124072160042</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.748974955499136</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.824624892942623</v>
+        <v>0.8616606028472376</v>
       </c>
       <c r="L19">
-        <v>0.2577401834666802</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8249263245874374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.315578484138328</v>
+      </c>
+      <c r="N19">
+        <v>0.6896587168132129</v>
+      </c>
+      <c r="O19">
+        <v>1.316431639513013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.61740221092947</v>
+        <v>3.298360394705924</v>
       </c>
       <c r="C20">
-        <v>1.111786282663331</v>
+        <v>0.7256105323225484</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0657016333596232</v>
+        <v>0.3146746103866107</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007721267246484123</v>
+        <v>0.0007629342737750143</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.882517463402166</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8614350075519468</v>
+        <v>0.8986361397753626</v>
       </c>
       <c r="L20">
-        <v>0.2687371779043488</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8611587022074829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.372629624039448</v>
+      </c>
+      <c r="N20">
+        <v>0.6756014209968413</v>
+      </c>
+      <c r="O20">
+        <v>1.361462683409826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.002119183603781</v>
+        <v>3.760597764702993</v>
       </c>
       <c r="C21">
-        <v>1.276784912695746</v>
+        <v>0.8277612018519562</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07378960232789211</v>
+        <v>0.3600266452736136</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007592840981840479</v>
+        <v>0.000753327466903538</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.344360656270965</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9884182948318312</v>
+        <v>1.025107362743853</v>
       </c>
       <c r="L21">
-        <v>0.3067039165132641</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9861528737549676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.568313805151178</v>
+      </c>
+      <c r="N21">
+        <v>0.6316553776110965</v>
+      </c>
+      <c r="O21">
+        <v>1.519320123587548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.262205005675355</v>
+        <v>4.069734937214719</v>
       </c>
       <c r="C22">
-        <v>1.388565214783171</v>
+        <v>0.8961534302313794</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07926706384509075</v>
+        <v>0.3906884305665841</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007508764716741341</v>
+        <v>0.000747082135608923</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.657672306834627</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.074320138923824</v>
+        <v>1.109708072956508</v>
       </c>
       <c r="L22">
-        <v>0.3324065508627783</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.070698708203352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.699671023314281</v>
+      </c>
+      <c r="N22">
+        <v>0.6056264206401067</v>
+      </c>
+      <c r="O22">
+        <v>1.628046836629622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.12250856625235</v>
+        <v>3.904031191947524</v>
       </c>
       <c r="C23">
-        <v>1.32850226454724</v>
+        <v>0.8594852957190824</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07632431463309786</v>
+        <v>0.374220531026296</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.000755367009648733</v>
+        <v>0.000750413296152882</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.489286673948357</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.028175144268147</v>
+        <v>1.064358206367743</v>
       </c>
       <c r="L23">
-        <v>0.3185981385404588</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.025284024018916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.629212707281937</v>
+      </c>
+      <c r="N23">
+        <v>0.6192554224331133</v>
+      </c>
+      <c r="O23">
+        <v>1.569462860965416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.611241067522485</v>
+        <v>3.290909938054313</v>
       </c>
       <c r="C24">
-        <v>1.109147143895939</v>
+        <v>0.7239649456357711</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06557229568038281</v>
+        <v>0.3139485678309129</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007723367927050751</v>
+        <v>0.000763092055745911</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.875138343410669</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8594021762178272</v>
+        <v>0.8965978551672862</v>
       </c>
       <c r="L24">
-        <v>0.2681297493389536</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.859157732327553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.369482751099682</v>
+      </c>
+      <c r="N24">
+        <v>0.6763616041947813</v>
+      </c>
+      <c r="O24">
+        <v>1.358966707827136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.08882749331093</v>
+        <v>2.653695884835713</v>
       </c>
       <c r="C25">
-        <v>0.8857273122304434</v>
+        <v>0.583287891734301</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05463735568330463</v>
+        <v>0.2524560709905117</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007907498587771815</v>
+        <v>0.0007769973150552167</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.251725843861806</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6871188201778011</v>
+        <v>0.7222812492675885</v>
       </c>
       <c r="L25">
-        <v>0.2167111567726536</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6896099546671621</v>
+        <v>1.101205866727959</v>
+      </c>
+      <c r="N25">
+        <v>0.7480093387026798</v>
+      </c>
+      <c r="O25">
+        <v>1.151635810096778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.199417287284462</v>
+        <v>2.323082348335845</v>
       </c>
       <c r="C2">
-        <v>0.4830110343087028</v>
+        <v>0.6283788531154926</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2093849336772564</v>
+        <v>0.8638484490893177</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.041228175216872</v>
       </c>
       <c r="G2">
-        <v>0.0007875168214557336</v>
+        <v>0.0007776429216356962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1312118746826414</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02166866205210738</v>
       </c>
       <c r="K2">
-        <v>0.598001574449242</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9110264850868646</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8079960281476346</v>
+        <v>0.7433265404262528</v>
       </c>
       <c r="O2">
-        <v>1.012000522243653</v>
+        <v>1.132180613187472</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.898364382056855</v>
+        <v>2.021826844772733</v>
       </c>
       <c r="C3">
-        <v>0.4165128741801425</v>
+        <v>0.5492574276931919</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1812263037039941</v>
+        <v>0.7612952221526115</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.825633372038141</v>
       </c>
       <c r="G3">
-        <v>0.000794857182587847</v>
+        <v>0.0007817073372572621</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1338402658267057</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02012561302069216</v>
       </c>
       <c r="K3">
-        <v>0.5156211726549671</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7855180918181262</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8525685631588331</v>
+        <v>0.7333952922306253</v>
       </c>
       <c r="O3">
-        <v>0.9238277723542438</v>
+        <v>1.051148720909708</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.71616378191095</v>
+        <v>1.837003345112976</v>
       </c>
       <c r="C4">
-        <v>0.3762310509066538</v>
+        <v>0.5007166492063675</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1643464811379829</v>
+        <v>0.6993184096681233</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.696825840422207</v>
       </c>
       <c r="G4">
-        <v>0.0007994787858606518</v>
+        <v>0.0007842793710273874</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1360906713255936</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01924996974047843</v>
       </c>
       <c r="K4">
-        <v>0.4657497453746444</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7097741223657081</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8816982416984729</v>
+        <v>0.7281453853854316</v>
       </c>
       <c r="O4">
-        <v>0.8723952839559175</v>
+        <v>1.004914464834499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.642485342037475</v>
+        <v>1.761699108820835</v>
       </c>
       <c r="C5">
-        <v>0.3599307591923093</v>
+        <v>0.4809382160924827</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1575575728380514</v>
+        <v>0.6742846351164928</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.645153087877958</v>
       </c>
       <c r="G5">
-        <v>0.0008013923466565904</v>
+        <v>0.0007853471848772115</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1371588320706021</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01890985828262259</v>
       </c>
       <c r="K5">
-        <v>0.4455786406424522</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6791928484703433</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8939885606760782</v>
+        <v>0.7262112816329207</v>
       </c>
       <c r="O5">
-        <v>0.852051749502877</v>
+        <v>0.9868959777752195</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.63028285228404</v>
+        <v>1.749194989241374</v>
       </c>
       <c r="C6">
-        <v>0.3572304111265794</v>
+        <v>0.4776539471221497</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1564353343115314</v>
+        <v>0.6701404679442504</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.636619992441254</v>
       </c>
       <c r="G6">
-        <v>0.000801711956299851</v>
+        <v>0.0007855256967459445</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1373450723053455</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0188543554082834</v>
       </c>
       <c r="K6">
-        <v>0.4422376785672029</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6741307762741471</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8960540648057105</v>
+        <v>0.725902300116914</v>
       </c>
       <c r="O6">
-        <v>0.8487091081889773</v>
+        <v>0.9839519229695952</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.715167942687088</v>
+        <v>1.83598774503028</v>
       </c>
       <c r="C7">
-        <v>0.3760107833133191</v>
+        <v>0.5004499107515983</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1642545768404133</v>
+        <v>0.698979929721574</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.696125756108529</v>
       </c>
       <c r="G7">
-        <v>0.0007995044687149721</v>
+        <v>0.0007842936915917658</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1361044766131805</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01924531688325715</v>
       </c>
       <c r="K7">
-        <v>0.4654771294900613</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7093605973845314</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.881862323133241</v>
+        <v>0.7281184803800897</v>
       </c>
       <c r="O7">
-        <v>0.8721185131196521</v>
+        <v>1.004668211863006</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.095004551007719</v>
+        <v>2.219163219189852</v>
       </c>
       <c r="C8">
-        <v>0.4599541727039309</v>
+        <v>0.6010845937201736</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.199582453313198</v>
+        <v>0.8282654803325045</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.96610060195141</v>
       </c>
       <c r="G8">
-        <v>0.0007900248753762689</v>
+        <v>0.000779028747243853</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1319804799578961</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02112088991916039</v>
       </c>
       <c r="K8">
-        <v>0.5694325222881389</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8674481735273218</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8229842879801481</v>
+        <v>0.7397213295226805</v>
       </c>
       <c r="O8">
-        <v>0.9809962059912891</v>
+        <v>1.103471440570786</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.865668325877721</v>
+        <v>2.972981138633202</v>
       </c>
       <c r="C9">
-        <v>0.6300746494191003</v>
+        <v>0.7991367027333354</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2727770601059589</v>
+        <v>1.090992545147387</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>2.527746007692343</v>
       </c>
       <c r="G9">
-        <v>0.0007722748128136064</v>
+        <v>0.0007692886394359805</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1293731298676128</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02543304743254637</v>
       </c>
       <c r="K9">
-        <v>0.7802673298043814</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.190257633801409</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7226647997534812</v>
+        <v>0.7695866196834089</v>
       </c>
       <c r="O9">
-        <v>1.219211088765434</v>
+        <v>1.328174325703827</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.455119508380221</v>
+        <v>3.530195178269537</v>
       </c>
       <c r="C10">
-        <v>0.7602400193046321</v>
+        <v>0.945682996874325</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.329987439503995</v>
+        <v>1.291673520473978</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.965973833711303</v>
       </c>
       <c r="G10">
-        <v>0.0007596370836924817</v>
+        <v>0.000762455457783339</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1314347024930917</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02908469295300975</v>
       </c>
       <c r="K10">
-        <v>0.9415234025820354</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.438893775590543</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6599964758929246</v>
+        <v>0.7964389214840537</v>
       </c>
       <c r="O10">
-        <v>1.414341404360613</v>
+        <v>1.516654381703546</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.730256661614703</v>
+        <v>3.784893282004646</v>
       </c>
       <c r="C11">
-        <v>0.8210522368165414</v>
+        <v>1.012726889052828</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3570314223249866</v>
+        <v>1.385142433269081</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.172357712756224</v>
       </c>
       <c r="G11">
-        <v>0.0007539477314225342</v>
+        <v>0.0007594089256937594</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1333895674252048</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03087456458759874</v>
       </c>
       <c r="K11">
-        <v>1.016804906179303</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.555442317969721</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6343514432742055</v>
+        <v>0.8098591925403298</v>
       </c>
       <c r="O11">
-        <v>1.508781874643304</v>
+        <v>1.608575217667379</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.835634836626127</v>
+        <v>3.881558387795167</v>
       </c>
       <c r="C12">
-        <v>0.8443558721930629</v>
+        <v>1.038182937758023</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.367445100844094</v>
+        <v>1.420897478926108</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.251656473018812</v>
       </c>
       <c r="G12">
-        <v>0.0007517992571735714</v>
+        <v>0.0007582634647136102</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1342900538704157</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03157302367620218</v>
       </c>
       <c r="K12">
-        <v>1.045640960643595</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.600162583125098</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6250976807127913</v>
+        <v>0.8151268273703209</v>
       </c>
       <c r="O12">
-        <v>1.545485780323389</v>
+        <v>1.644372098958826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.812883654071925</v>
+        <v>3.860729501942728</v>
       </c>
       <c r="C13">
-        <v>0.8393239799016499</v>
+        <v>1.032697269722348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3651941906554299</v>
+        <v>1.413180155354368</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>3.234524827430789</v>
       </c>
       <c r="G13">
-        <v>0.0007522617498004181</v>
+        <v>0.0007585098077156342</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1340887572859515</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03142164197863195</v>
       </c>
       <c r="K13">
-        <v>1.039415088334664</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.590503638730837</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6270695031463589</v>
+        <v>0.813983882940164</v>
       </c>
       <c r="O13">
-        <v>1.537536893863347</v>
+        <v>1.636616957205575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.738901202317777</v>
+        <v>3.792841390099625</v>
       </c>
       <c r="C14">
-        <v>0.822963639750526</v>
+        <v>1.014819729091727</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3578845373410502</v>
+        <v>1.388076511097722</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.17885789070229</v>
       </c>
       <c r="G14">
-        <v>0.000753770871944149</v>
+        <v>0.0007593145279831078</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1334603557797713</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03093159981082749</v>
       </c>
       <c r="K14">
-        <v>1.019170359459807</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.55910917542721</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6335806783417581</v>
+        <v>0.8102887686315228</v>
       </c>
       <c r="O14">
-        <v>1.511781883101975</v>
+        <v>1.611499836376225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.693745628197348</v>
+        <v>3.751287441290572</v>
       </c>
       <c r="C15">
-        <v>0.8129797737578031</v>
+        <v>1.003878495074105</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3534304957199907</v>
+        <v>1.372748225247221</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.144913702440192</v>
       </c>
       <c r="G15">
-        <v>0.0007546959456950726</v>
+        <v>0.0007598084874657723</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1330967415141835</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03063419471235562</v>
       </c>
       <c r="K15">
-        <v>1.006814322387143</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.53995836103195</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6376299986556972</v>
+        <v>0.808049967725168</v>
       </c>
       <c r="O15">
-        <v>1.496132792133878</v>
+        <v>1.596246707968561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.437294564331239</v>
+        <v>3.513578016387896</v>
       </c>
       <c r="C16">
-        <v>0.7563017214426679</v>
+        <v>0.9413102708533359</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3282427111640445</v>
+        <v>1.285612857043176</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.952638860075552</v>
       </c>
       <c r="G16">
-        <v>0.0007600098799616991</v>
+        <v>0.0007626557424050433</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.131328581679135</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02897049136951679</v>
       </c>
       <c r="K16">
-        <v>0.9366465899130816</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.431353819801657</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6617338246284561</v>
+        <v>0.7955871613250594</v>
       </c>
       <c r="O16">
-        <v>1.4082940290198</v>
+        <v>1.510779834937665</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.281884870494821</v>
+        <v>3.368091235469706</v>
       </c>
       <c r="C17">
-        <v>0.7219716062377302</v>
+        <v>0.9030329716165681</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3130692938001403</v>
+        <v>1.232748030196163</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.836577128577034</v>
       </c>
       <c r="G17">
-        <v>0.0007632833177780635</v>
+        <v>0.0007644178133342533</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1305139522968304</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02798431088259079</v>
       </c>
       <c r="K17">
-        <v>0.8941287979517085</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.365671113646343</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6772847261255066</v>
+        <v>0.788258794528204</v>
       </c>
       <c r="O17">
-        <v>1.355945342650458</v>
+        <v>1.459999922842456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.193143190100329</v>
+        <v>3.284523102431251</v>
       </c>
       <c r="C18">
-        <v>0.7023733152890372</v>
+        <v>0.8810516957977939</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3044360643708544</v>
+        <v>1.202543490530218</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.770474569112508</v>
       </c>
       <c r="G18">
-        <v>0.0007651718982858545</v>
+        <v>0.0007654371835373108</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1301402274347438</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02742906113600085</v>
       </c>
       <c r="K18">
-        <v>0.8698514386721143</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.328210104601013</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6864956093255188</v>
+        <v>0.7841563391250048</v>
       </c>
       <c r="O18">
-        <v>1.326361487083219</v>
+        <v>1.431367926839471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.163202480059056</v>
+        <v>3.256246413551139</v>
       </c>
       <c r="C19">
-        <v>0.6957617163300256</v>
+        <v>0.8736148050805639</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3015284242742524</v>
+        <v>1.192350073210051</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.748201658014978</v>
       </c>
       <c r="G19">
-        <v>0.0007658124072160042</v>
+        <v>0.0007657833541955216</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1300295700018808</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02724305705370256</v>
       </c>
       <c r="K19">
-        <v>0.8616606028472376</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.315578484138328</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6896587168132129</v>
+        <v>0.782786299570617</v>
       </c>
       <c r="O19">
-        <v>1.316431639513013</v>
+        <v>1.421769525744907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.298360394705924</v>
+        <v>3.383566672168627</v>
       </c>
       <c r="C20">
-        <v>0.7256105323225484</v>
+        <v>0.9071039592300849</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3146746103866107</v>
+        <v>1.238354358332671</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.848863574217091</v>
       </c>
       <c r="G20">
-        <v>0.0007629342737750143</v>
+        <v>0.0007642296349963754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1305907589908095</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02808803703447893</v>
       </c>
       <c r="K20">
-        <v>0.8986361397753626</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.372629624039448</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6756014209968413</v>
+        <v>0.7890271683863403</v>
       </c>
       <c r="O20">
-        <v>1.361462683409826</v>
+        <v>1.465345297873</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.760597764702993</v>
+        <v>3.812775551418611</v>
       </c>
       <c r="C21">
-        <v>0.8277612018519562</v>
+        <v>1.020068837086257</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3600266452736136</v>
+        <v>1.395439877537299</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.195176388174957</v>
       </c>
       <c r="G21">
-        <v>0.000753327466903538</v>
+        <v>0.0007590779457084529</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1336404671026195</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03107495777455682</v>
       </c>
       <c r="K21">
-        <v>1.025107362743853</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.568313805151178</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6316553776110965</v>
+        <v>0.8113689708657432</v>
       </c>
       <c r="O21">
-        <v>1.519320123587548</v>
+        <v>1.618849679330225</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.069734937214719</v>
+        <v>4.094572100196558</v>
       </c>
       <c r="C22">
-        <v>0.8961534302313794</v>
+        <v>1.094301429864686</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3906884305665841</v>
+        <v>1.500230698204959</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>3.428261971231478</v>
       </c>
       <c r="G22">
-        <v>0.000747082135608923</v>
+        <v>0.0007557584100201797</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1365748556795161</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03314873479003566</v>
       </c>
       <c r="K22">
-        <v>1.109708072956508</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.699671023314281</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6056264206401067</v>
+        <v>0.8270592906292649</v>
       </c>
       <c r="O22">
-        <v>1.628046836629622</v>
+        <v>1.724987833370534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.904031191947524</v>
+        <v>3.944039851651269</v>
       </c>
       <c r="C23">
-        <v>0.8594852957190824</v>
+        <v>1.05464036478466</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.374220531026296</v>
+        <v>1.444090353084533</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.303194167882566</v>
       </c>
       <c r="G23">
-        <v>0.000750413296152882</v>
+        <v>0.0007575260226395653</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1349176722197569</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03203002227789753</v>
       </c>
       <c r="K23">
-        <v>1.064358206367743</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.629212707281937</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6192554224331133</v>
+        <v>0.8185811175345918</v>
       </c>
       <c r="O23">
-        <v>1.569462860965416</v>
+        <v>1.667772646890825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.290909938054313</v>
+        <v>3.37656999932716</v>
       </c>
       <c r="C24">
-        <v>0.7239649456357711</v>
+        <v>0.9052633893163886</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3139485678309129</v>
+        <v>1.235819154829187</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.843306942026146</v>
       </c>
       <c r="G24">
-        <v>0.000763092055745911</v>
+        <v>0.0007643146905925587</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1305557410180427</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02804110610164656</v>
       </c>
       <c r="K24">
-        <v>0.8965978551672862</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.369482751099682</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6763616041947813</v>
+        <v>0.7886794426218984</v>
       </c>
       <c r="O24">
-        <v>1.358966707827136</v>
+        <v>1.462926910591193</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.653695884835713</v>
+        <v>2.768607373157806</v>
       </c>
       <c r="C25">
-        <v>0.583287891734301</v>
+        <v>0.7454233490246622</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2524560709905117</v>
+        <v>1.018733342156992</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>2.371773741923803</v>
       </c>
       <c r="G25">
-        <v>0.0007769973150552167</v>
+        <v>0.0007718643363283372</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1294288967028621</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02418906743978866</v>
       </c>
       <c r="K25">
-        <v>0.7222812492675885</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.101205866727959</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7480093387026798</v>
+        <v>0.7606890479082296</v>
       </c>
       <c r="O25">
-        <v>1.151635810096778</v>
+        <v>1.263626663808822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.323082348335845</v>
+        <v>0.7768072530323593</v>
       </c>
       <c r="C2">
-        <v>0.6283788531154926</v>
+        <v>0.1947694543560772</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8638484490893177</v>
+        <v>0.7294059226006908</v>
       </c>
       <c r="F2">
-        <v>2.041228175216872</v>
+        <v>2.125094005473898</v>
       </c>
       <c r="G2">
-        <v>0.0007776429216356962</v>
+        <v>0.002389931180061565</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1312118746826414</v>
+        <v>0.3279309542900108</v>
       </c>
       <c r="J2">
-        <v>0.02166866205210738</v>
+        <v>0.03163005799406804</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7433265404262528</v>
+        <v>0.8905864980084175</v>
       </c>
       <c r="O2">
-        <v>1.132180613187472</v>
+        <v>1.62647748621194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.021826844772733</v>
+        <v>0.6840290669999263</v>
       </c>
       <c r="C3">
-        <v>0.5492574276931919</v>
+        <v>0.1701091766746856</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7612952221526115</v>
+        <v>0.7065446905868527</v>
       </c>
       <c r="F3">
-        <v>1.825633372038141</v>
+        <v>2.087326923490849</v>
       </c>
       <c r="G3">
-        <v>0.0007817073372572621</v>
+        <v>0.002392582710328061</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1338402658267057</v>
+        <v>0.3330822552223189</v>
       </c>
       <c r="J3">
-        <v>0.02012561302069216</v>
+        <v>0.0316440336508883</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7333952922306253</v>
+        <v>0.8893806391606063</v>
       </c>
       <c r="O3">
-        <v>1.051148720909708</v>
+        <v>1.626116702714739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837003345112976</v>
+        <v>0.6269627375471316</v>
       </c>
       <c r="C4">
-        <v>0.5007166492063675</v>
+        <v>0.1549056167598906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6993184096681233</v>
+        <v>0.6928565713068195</v>
       </c>
       <c r="F4">
-        <v>1.696825840422207</v>
+        <v>2.065492822590727</v>
       </c>
       <c r="G4">
-        <v>0.0007842793710273874</v>
+        <v>0.002394296713355615</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1360906713255936</v>
+        <v>0.3365238082549205</v>
       </c>
       <c r="J4">
-        <v>0.01924996974047843</v>
+        <v>0.03168008694556335</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7281453853854316</v>
+        <v>0.8890156574449719</v>
       </c>
       <c r="O4">
-        <v>1.004914464834499</v>
+        <v>1.627291173391029</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.761699108820835</v>
+        <v>0.6036839437693118</v>
       </c>
       <c r="C5">
-        <v>0.4809382160924827</v>
+        <v>0.1486947258585758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6742846351164928</v>
+        <v>0.6873661571158607</v>
       </c>
       <c r="F5">
-        <v>1.645153087877958</v>
+        <v>2.056935217299582</v>
       </c>
       <c r="G5">
-        <v>0.0007853471848772115</v>
+        <v>0.002395016863060957</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1371588320706021</v>
+        <v>0.3379961413367489</v>
       </c>
       <c r="J5">
-        <v>0.01890985828262259</v>
+        <v>0.03170166262354357</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7262112816329207</v>
+        <v>0.8889615947955676</v>
       </c>
       <c r="O5">
-        <v>0.9868959777752195</v>
+        <v>1.628119772097534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.749194989241374</v>
+        <v>0.5998171210544001</v>
       </c>
       <c r="C6">
-        <v>0.4776539471221497</v>
+        <v>0.147662495517892</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6701404679442504</v>
+        <v>0.6864597664936269</v>
       </c>
       <c r="F6">
-        <v>1.636619992441254</v>
+        <v>2.055534744422786</v>
       </c>
       <c r="G6">
-        <v>0.0007855256967459445</v>
+        <v>0.002395137754742076</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1373450723053455</v>
+        <v>0.33824483560376</v>
       </c>
       <c r="J6">
-        <v>0.0188543554082834</v>
+        <v>0.0317056602915109</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.725902300116914</v>
+        <v>0.8889583435798656</v>
       </c>
       <c r="O6">
-        <v>0.9839519229695952</v>
+        <v>1.628278468504263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.83598774503028</v>
+        <v>0.6266488861288622</v>
       </c>
       <c r="C7">
-        <v>0.5004499107515983</v>
+        <v>0.1548219161487339</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.698979929721574</v>
+        <v>0.6927821710743558</v>
       </c>
       <c r="F7">
-        <v>1.696125756108529</v>
+        <v>2.065376036236074</v>
       </c>
       <c r="G7">
-        <v>0.0007842936915917658</v>
+        <v>0.002394306337752373</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1361044766131805</v>
+        <v>0.336543381999693</v>
       </c>
       <c r="J7">
-        <v>0.01924531688325715</v>
+        <v>0.03168035008279801</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7281184803800897</v>
+        <v>0.8890145446629987</v>
       </c>
       <c r="O7">
-        <v>1.004668211863006</v>
+        <v>1.627300932443404</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.219163219189852</v>
+        <v>0.7448389195902791</v>
       </c>
       <c r="C8">
-        <v>0.6010845937201736</v>
+        <v>0.1862796330416359</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8282654803325045</v>
+        <v>0.7214509157749092</v>
       </c>
       <c r="F8">
-        <v>1.96610060195141</v>
+        <v>2.111790195963636</v>
       </c>
       <c r="G8">
-        <v>0.000779028747243853</v>
+        <v>0.002390827627995393</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1319804799578961</v>
+        <v>0.329649177111861</v>
       </c>
       <c r="J8">
-        <v>0.02112088991916039</v>
+        <v>0.0316291601310752</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7397213295226805</v>
+        <v>0.8900929557204051</v>
       </c>
       <c r="O8">
-        <v>1.103471440570786</v>
+        <v>1.626062717091884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.972981138633202</v>
+        <v>0.9757651099570808</v>
       </c>
       <c r="C9">
-        <v>0.7991367027333354</v>
+        <v>0.2474661312647868</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.090992545147387</v>
+        <v>0.7804456863386804</v>
       </c>
       <c r="F9">
-        <v>2.527746007692343</v>
+        <v>2.213602304440997</v>
       </c>
       <c r="G9">
-        <v>0.0007692886394359805</v>
+        <v>0.00238468485700918</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1293731298676128</v>
+        <v>0.3183490719464714</v>
       </c>
       <c r="J9">
-        <v>0.02543304743254637</v>
+        <v>0.0317479082976746</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7695866196834089</v>
+        <v>0.8951760698139992</v>
       </c>
       <c r="O9">
-        <v>1.328174325703827</v>
+        <v>1.634760864569216</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.530195178269537</v>
+        <v>1.144862061827439</v>
       </c>
       <c r="C10">
-        <v>0.945682996874325</v>
+        <v>0.2921051600833096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.291673520473978</v>
+        <v>0.8254978880137003</v>
       </c>
       <c r="F10">
-        <v>2.965973833711303</v>
+        <v>2.29505406678976</v>
       </c>
       <c r="G10">
-        <v>0.000762455457783339</v>
+        <v>0.002380581429634146</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1314347024930917</v>
+        <v>0.3114116267707701</v>
       </c>
       <c r="J10">
-        <v>0.02908469295300975</v>
+        <v>0.03197040741874346</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7964389214840537</v>
+        <v>0.9007081368950338</v>
       </c>
       <c r="O10">
-        <v>1.516654381703546</v>
+        <v>1.648006998776566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.784893282004646</v>
+        <v>1.221656550196769</v>
       </c>
       <c r="C11">
-        <v>1.012726889052828</v>
+        <v>0.3123427204654092</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.385142433269081</v>
+        <v>0.846368334989748</v>
       </c>
       <c r="F11">
-        <v>3.172357712756224</v>
+        <v>2.333568533435567</v>
       </c>
       <c r="G11">
-        <v>0.0007594089256937594</v>
+        <v>0.0023788027239981</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1333895674252048</v>
+        <v>0.3085544677278165</v>
       </c>
       <c r="J11">
-        <v>0.03087456458759874</v>
+        <v>0.03210136144416964</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8098591925403298</v>
+        <v>0.9036127953959578</v>
       </c>
       <c r="O11">
-        <v>1.608575217667379</v>
+        <v>1.655537553615233</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.881558387795167</v>
+        <v>1.250716970956319</v>
       </c>
       <c r="C12">
-        <v>1.038182937758023</v>
+        <v>0.3199960141935492</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.420897478926108</v>
+        <v>0.8543257080803102</v>
       </c>
       <c r="F12">
-        <v>3.251656473018812</v>
+        <v>2.348364210146457</v>
       </c>
       <c r="G12">
-        <v>0.0007582634647136102</v>
+        <v>0.002378141755295467</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1342900538704157</v>
+        <v>0.3075157031674003</v>
       </c>
       <c r="J12">
-        <v>0.03157302367620218</v>
+        <v>0.03215525494960758</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8151268273703209</v>
+        <v>0.9047683073592054</v>
       </c>
       <c r="O12">
-        <v>1.644372098958826</v>
+        <v>1.65860678880415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.860729501942728</v>
+        <v>1.244459202027144</v>
       </c>
       <c r="C13">
-        <v>1.032697269722348</v>
+        <v>0.3183482004891118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.413180155354368</v>
+        <v>0.8526095333919841</v>
       </c>
       <c r="F13">
-        <v>3.234524827430789</v>
+        <v>2.345168293994817</v>
       </c>
       <c r="G13">
-        <v>0.0007585098077156342</v>
+        <v>0.002378283547937661</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1340887572859515</v>
+        <v>0.3077374957090875</v>
       </c>
       <c r="J13">
-        <v>0.03142164197863195</v>
+        <v>0.03214345615200997</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.813983882940164</v>
+        <v>0.904516978752099</v>
       </c>
       <c r="O13">
-        <v>1.636616957205575</v>
+        <v>1.657936078375855</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.792841390099625</v>
+        <v>1.224047777596752</v>
       </c>
       <c r="C14">
-        <v>1.014819729091727</v>
+        <v>0.3129725683934623</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.388076511097722</v>
+        <v>0.8470219061403839</v>
       </c>
       <c r="F14">
-        <v>3.17885789070229</v>
+        <v>2.334781547039512</v>
       </c>
       <c r="G14">
-        <v>0.0007593145279831078</v>
+        <v>0.002378748093827416</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1334603557797713</v>
+        <v>0.3084681412756538</v>
       </c>
       <c r="J14">
-        <v>0.03093159981082749</v>
+        <v>0.03210570887639008</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8102887686315228</v>
+        <v>0.9037067474141338</v>
       </c>
       <c r="O14">
-        <v>1.611499836376225</v>
+        <v>1.655785694067902</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.751287441290572</v>
+        <v>1.211542543730843</v>
       </c>
       <c r="C15">
-        <v>1.003878495074105</v>
+        <v>0.3096784967901556</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.372748225247221</v>
+        <v>0.8436063836765868</v>
       </c>
       <c r="F15">
-        <v>3.144913702440192</v>
+        <v>2.328446880848276</v>
       </c>
       <c r="G15">
-        <v>0.0007598084874657723</v>
+        <v>0.002379034279086256</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1330967415141835</v>
+        <v>0.3089213126878292</v>
       </c>
       <c r="J15">
-        <v>0.03063419471235562</v>
+        <v>0.03208314892074426</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.808049967725168</v>
+        <v>0.9032176889707841</v>
       </c>
       <c r="O15">
-        <v>1.596246707968561</v>
+        <v>1.654496891815285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.513578016387896</v>
+        <v>1.139840646183643</v>
       </c>
       <c r="C16">
-        <v>0.9413102708533359</v>
+        <v>0.2907811733388712</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.285612857043176</v>
+        <v>0.8241415312233045</v>
       </c>
       <c r="F16">
-        <v>2.952638860075552</v>
+        <v>2.292566544770153</v>
       </c>
       <c r="G16">
-        <v>0.0007626557424050433</v>
+        <v>0.002380699436958995</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.131328581679135</v>
+        <v>0.3116043789837164</v>
       </c>
       <c r="J16">
-        <v>0.02897049136951679</v>
+        <v>0.03196245004289011</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7955871613250594</v>
+        <v>0.9005261005563625</v>
       </c>
       <c r="O16">
-        <v>1.510779834937665</v>
+        <v>1.647545241528007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.368091235469706</v>
+        <v>1.095819858443804</v>
       </c>
       <c r="C17">
-        <v>0.9030329716165681</v>
+        <v>0.2791703910248202</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.232748030196163</v>
+        <v>0.812296857161158</v>
       </c>
       <c r="F17">
-        <v>2.836577128577034</v>
+        <v>2.270930122960152</v>
       </c>
       <c r="G17">
-        <v>0.0007644178133342533</v>
+        <v>0.002381743443620595</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1305139522968304</v>
+        <v>0.3133270218654118</v>
       </c>
       <c r="J17">
-        <v>0.02798431088259079</v>
+        <v>0.03189604155264902</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.788258794528204</v>
+        <v>0.8989741351347789</v>
       </c>
       <c r="O17">
-        <v>1.459999922842456</v>
+        <v>1.643666893777208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.284523102431251</v>
+        <v>1.070488253817928</v>
       </c>
       <c r="C18">
-        <v>0.8810516957977939</v>
+        <v>0.2724857042475151</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.202543490530218</v>
+        <v>0.805519494821624</v>
       </c>
       <c r="F18">
-        <v>2.770474569112508</v>
+        <v>2.258622948623838</v>
       </c>
       <c r="G18">
-        <v>0.0007654371835373108</v>
+        <v>0.002382352211998649</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1301402274347438</v>
+        <v>0.3143459439790988</v>
       </c>
       <c r="J18">
-        <v>0.02742906113600085</v>
+        <v>0.03186064256943055</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7841563391250048</v>
+        <v>0.8981180280017185</v>
       </c>
       <c r="O18">
-        <v>1.431367926839471</v>
+        <v>1.641577740715547</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.256246413551139</v>
+        <v>1.061909390458311</v>
       </c>
       <c r="C19">
-        <v>0.8736148050805639</v>
+        <v>0.2702212822376282</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.192350073210051</v>
+        <v>0.803230869401375</v>
       </c>
       <c r="F19">
-        <v>2.748201658014978</v>
+        <v>2.254479543308264</v>
       </c>
       <c r="G19">
-        <v>0.0007657833541955216</v>
+        <v>0.002382559754875252</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1300295700018808</v>
+        <v>0.3146957534785919</v>
       </c>
       <c r="J19">
-        <v>0.02724305705370256</v>
+        <v>0.03184913669742784</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.782786299570617</v>
+        <v>0.897834448023886</v>
       </c>
       <c r="O19">
-        <v>1.421769525744907</v>
+        <v>1.64089466805666</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.383566672168627</v>
+        <v>1.100507200497304</v>
       </c>
       <c r="C20">
-        <v>0.9071039592300849</v>
+        <v>0.2804070507278311</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.238354358332671</v>
+        <v>0.8135540802659307</v>
       </c>
       <c r="F20">
-        <v>2.848863574217091</v>
+        <v>2.273219117356177</v>
       </c>
       <c r="G20">
-        <v>0.0007642296349963754</v>
+        <v>0.00238163145045358</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1305907589908095</v>
+        <v>0.3131407333602922</v>
       </c>
       <c r="J20">
-        <v>0.02808803703447893</v>
+        <v>0.03190282112625198</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7890271683863403</v>
+        <v>0.8991355641677785</v>
       </c>
       <c r="O20">
-        <v>1.465345297873</v>
+        <v>1.644065089959327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.812775551418611</v>
+        <v>1.230043662036223</v>
       </c>
       <c r="C21">
-        <v>1.020068837086257</v>
+        <v>0.3145518020211284</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.395439877537299</v>
+        <v>0.8486616560693818</v>
       </c>
       <c r="F21">
-        <v>3.195176388174957</v>
+        <v>2.337826650423267</v>
       </c>
       <c r="G21">
-        <v>0.0007590779457084529</v>
+        <v>0.002378611304292691</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1336404671026195</v>
+        <v>0.308252359294297</v>
       </c>
       <c r="J21">
-        <v>0.03107495777455682</v>
+        <v>0.03211667913414828</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8113689708657432</v>
+        <v>0.9039432253252215</v>
       </c>
       <c r="O21">
-        <v>1.618849679330225</v>
+        <v>1.656411399617411</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.094572100196558</v>
+        <v>1.314586047322734</v>
       </c>
       <c r="C22">
-        <v>1.094301429864686</v>
+        <v>0.3368075906011541</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.500230698204959</v>
+        <v>0.8719223940838816</v>
       </c>
       <c r="F22">
-        <v>3.428261971231478</v>
+        <v>2.381282191041208</v>
       </c>
       <c r="G22">
-        <v>0.0007557584100201797</v>
+        <v>0.002376710811024182</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1365748556795161</v>
+        <v>0.3053093118736925</v>
       </c>
       <c r="J22">
-        <v>0.03314873479003566</v>
+        <v>0.03228154798041061</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8270592906292649</v>
+        <v>0.9074091766364205</v>
       </c>
       <c r="O22">
-        <v>1.724987833370534</v>
+        <v>1.665749185988403</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.944039851651269</v>
+        <v>1.269475400610418</v>
       </c>
       <c r="C23">
-        <v>1.05464036478466</v>
+        <v>0.3249348309883828</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.444090353084533</v>
+        <v>0.8594787531639696</v>
       </c>
       <c r="F23">
-        <v>3.303194167882566</v>
+        <v>2.357976234938775</v>
       </c>
       <c r="G23">
-        <v>0.0007575260226395653</v>
+        <v>0.00237771844869302</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1349176722197569</v>
+        <v>0.3068569590162618</v>
       </c>
       <c r="J23">
-        <v>0.03203002227789753</v>
+        <v>0.03219124850687649</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8185811175345918</v>
+        <v>0.905529772615111</v>
       </c>
       <c r="O23">
-        <v>1.667772646890825</v>
+        <v>1.660648950008891</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.37656999932716</v>
+        <v>1.098388126138389</v>
       </c>
       <c r="C24">
-        <v>0.9052633893163886</v>
+        <v>0.2798479864259207</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.235819154829187</v>
+        <v>0.8129855891032491</v>
       </c>
       <c r="F24">
-        <v>2.843306942026146</v>
+        <v>2.272183852211185</v>
       </c>
       <c r="G24">
-        <v>0.0007643146905925587</v>
+        <v>0.002381682056004994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1305557410180427</v>
+        <v>0.3132248654714083</v>
       </c>
       <c r="J24">
-        <v>0.02804110610164656</v>
+        <v>0.03189974742387136</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7886794426218984</v>
+        <v>0.8990624695124438</v>
       </c>
       <c r="O24">
-        <v>1.462926910591193</v>
+        <v>1.64388462770745</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.768607373157806</v>
+        <v>0.9133890096939012</v>
       </c>
       <c r="C25">
-        <v>0.7454233490246622</v>
+        <v>0.2309682053049471</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.018733342156992</v>
+        <v>0.7641871879279591</v>
       </c>
       <c r="F25">
-        <v>2.371773741923803</v>
+        <v>2.184896637946764</v>
       </c>
       <c r="G25">
-        <v>0.0007718643363283372</v>
+        <v>0.002386274392122229</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1294288967028621</v>
+        <v>0.3211672351900248</v>
       </c>
       <c r="J25">
-        <v>0.02418906743978866</v>
+        <v>0.03169215225198485</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7606890479082296</v>
+        <v>0.8934844439991991</v>
       </c>
       <c r="O25">
-        <v>1.263626663808822</v>
+        <v>1.631209127962109</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7768072530323593</v>
+        <v>2.323082348335845</v>
       </c>
       <c r="C2">
-        <v>0.1947694543560772</v>
+        <v>0.6283788531156915</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7294059226006908</v>
+        <v>0.8638484490892751</v>
       </c>
       <c r="F2">
-        <v>2.125094005473898</v>
+        <v>2.041228175216901</v>
       </c>
       <c r="G2">
-        <v>0.002389931180061565</v>
+        <v>0.0007776429216341717</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3279309542900108</v>
+        <v>0.1312118746826414</v>
       </c>
       <c r="J2">
-        <v>0.03163005799406804</v>
+        <v>0.02166866205215712</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8905864980084175</v>
+        <v>0.7433265404262954</v>
       </c>
       <c r="O2">
-        <v>1.62647748621194</v>
+        <v>1.132180613187387</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6840290669999263</v>
+        <v>2.021826844772789</v>
       </c>
       <c r="C3">
-        <v>0.1701091766746856</v>
+        <v>0.5492574276931919</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7065446905868527</v>
+        <v>0.7612952221526257</v>
       </c>
       <c r="F3">
-        <v>2.087326923490849</v>
+        <v>1.825633372038155</v>
       </c>
       <c r="G3">
-        <v>0.002392582710328061</v>
+        <v>0.0007817073371997288</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3330822552223189</v>
+        <v>0.1338402658266951</v>
       </c>
       <c r="J3">
-        <v>0.0316440336508883</v>
+        <v>0.02012561302074545</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8893806391606063</v>
+        <v>0.7333952922306253</v>
       </c>
       <c r="O3">
-        <v>1.626116702714739</v>
+        <v>1.05114872090968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6269627375471316</v>
+        <v>1.837003345112834</v>
       </c>
       <c r="C4">
-        <v>0.1549056167598906</v>
+        <v>0.5007166492059127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6928565713068195</v>
+        <v>0.6993184096681233</v>
       </c>
       <c r="F4">
-        <v>2.065492822590727</v>
+        <v>1.696825840422193</v>
       </c>
       <c r="G4">
-        <v>0.002394296713355615</v>
+        <v>0.0007842793710274265</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3365238082549205</v>
+        <v>0.1360906713255758</v>
       </c>
       <c r="J4">
-        <v>0.03168008694556335</v>
+        <v>0.01924996974047843</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8890156574449719</v>
+        <v>0.7281453853854316</v>
       </c>
       <c r="O4">
-        <v>1.627291173391029</v>
+        <v>1.004914464834499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6036839437693118</v>
+        <v>1.761699108820835</v>
       </c>
       <c r="C5">
-        <v>0.1486947258585758</v>
+        <v>0.4809382160927385</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6873661571158607</v>
+        <v>0.6742846351164786</v>
       </c>
       <c r="F5">
-        <v>2.056935217299582</v>
+        <v>1.645153087877958</v>
       </c>
       <c r="G5">
-        <v>0.002395016863060957</v>
+        <v>0.0007853471848766663</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3379961413367489</v>
+        <v>0.1371588320705897</v>
       </c>
       <c r="J5">
-        <v>0.03170166262354357</v>
+        <v>0.01890985828266878</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8889615947955676</v>
+        <v>0.7262112816329633</v>
       </c>
       <c r="O5">
-        <v>1.628119772097534</v>
+        <v>0.9868959777751911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5998171210544001</v>
+        <v>1.749194989241488</v>
       </c>
       <c r="C6">
-        <v>0.147662495517892</v>
+        <v>0.4776539471218939</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6864597664936269</v>
+        <v>0.6701404679442504</v>
       </c>
       <c r="F6">
-        <v>2.055534744422786</v>
+        <v>1.636619992441268</v>
       </c>
       <c r="G6">
-        <v>0.002395137754742076</v>
+        <v>0.0007855256967273483</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.33824483560376</v>
+        <v>0.1373450723053509</v>
       </c>
       <c r="J6">
-        <v>0.0317056602915109</v>
+        <v>0.01885435540829761</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8889583435798656</v>
+        <v>0.7259023001168714</v>
       </c>
       <c r="O6">
-        <v>1.628278468504263</v>
+        <v>0.9839519229695384</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6266488861288622</v>
+        <v>1.835987745030394</v>
       </c>
       <c r="C7">
-        <v>0.1548219161487339</v>
+        <v>0.5004499107515699</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6927821710743558</v>
+        <v>0.698979929721574</v>
       </c>
       <c r="F7">
-        <v>2.065376036236074</v>
+        <v>1.696125756108529</v>
       </c>
       <c r="G7">
-        <v>0.002394306337752373</v>
+        <v>0.0007842936916484216</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.336543381999693</v>
+        <v>0.136104476613184</v>
       </c>
       <c r="J7">
-        <v>0.03168035008279801</v>
+        <v>0.0192453168832607</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8890145446629987</v>
+        <v>0.7281184803800969</v>
       </c>
       <c r="O7">
-        <v>1.627300932443404</v>
+        <v>1.004668211862949</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7448389195902791</v>
+        <v>2.219163219189909</v>
       </c>
       <c r="C8">
-        <v>0.1862796330416359</v>
+        <v>0.6010845937200884</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7214509157749092</v>
+        <v>0.828265480332476</v>
       </c>
       <c r="F8">
-        <v>2.111790195963636</v>
+        <v>1.96610060195141</v>
       </c>
       <c r="G8">
-        <v>0.002390827627995393</v>
+        <v>0.0007790287473001964</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.329649177111861</v>
+        <v>0.1319804799579032</v>
       </c>
       <c r="J8">
-        <v>0.0316291601310752</v>
+        <v>0.02112088991916039</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8900929557204051</v>
+        <v>0.7397213295226948</v>
       </c>
       <c r="O8">
-        <v>1.626062717091884</v>
+        <v>1.103471440570814</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9757651099570808</v>
+        <v>2.972981138633202</v>
       </c>
       <c r="C9">
-        <v>0.2474661312647868</v>
+        <v>0.7991367027334775</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7804456863386804</v>
+        <v>1.090992545147387</v>
       </c>
       <c r="F9">
-        <v>2.213602304440997</v>
+        <v>2.527746007692372</v>
       </c>
       <c r="G9">
-        <v>0.00238468485700918</v>
+        <v>0.0007692886394071748</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3183490719464714</v>
+        <v>0.1293731298676235</v>
       </c>
       <c r="J9">
-        <v>0.0317479082976746</v>
+        <v>0.02543304743260322</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8951760698139992</v>
+        <v>0.7695866196833947</v>
       </c>
       <c r="O9">
-        <v>1.634760864569216</v>
+        <v>1.328174325703827</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.144862061827439</v>
+        <v>3.53019517826948</v>
       </c>
       <c r="C10">
-        <v>0.2921051600833096</v>
+        <v>0.9456829968745524</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8254978880137003</v>
+        <v>1.291673520473978</v>
       </c>
       <c r="F10">
-        <v>2.29505406678976</v>
+        <v>2.965973833711274</v>
       </c>
       <c r="G10">
-        <v>0.002380581429634146</v>
+        <v>0.0007624554577015859</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3114116267707701</v>
+        <v>0.1314347024930917</v>
       </c>
       <c r="J10">
-        <v>0.03197040741874346</v>
+        <v>0.02908469295313054</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9007081368950338</v>
+        <v>0.7964389214840537</v>
       </c>
       <c r="O10">
-        <v>1.648006998776566</v>
+        <v>1.516654381703546</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.221656550196769</v>
+        <v>3.784893282004703</v>
       </c>
       <c r="C11">
-        <v>0.3123427204654092</v>
+        <v>1.012726889053027</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.846368334989748</v>
+        <v>1.38514243326911</v>
       </c>
       <c r="F11">
-        <v>2.333568533435567</v>
+        <v>3.172357712756224</v>
       </c>
       <c r="G11">
-        <v>0.0023788027239981</v>
+        <v>0.0007594089256936482</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3085544677278165</v>
+        <v>0.1333895674252048</v>
       </c>
       <c r="J11">
-        <v>0.03210136144416964</v>
+        <v>0.03087456458753834</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9036127953959578</v>
+        <v>0.8098591925404008</v>
       </c>
       <c r="O11">
-        <v>1.655537553615233</v>
+        <v>1.608575217667351</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.250716970956319</v>
+        <v>3.881558387795053</v>
       </c>
       <c r="C12">
-        <v>0.3199960141935492</v>
+        <v>1.038182937757398</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8543257080803102</v>
+        <v>1.420897478926108</v>
       </c>
       <c r="F12">
-        <v>2.348364210146457</v>
+        <v>3.251656473018841</v>
       </c>
       <c r="G12">
-        <v>0.002378141755295467</v>
+        <v>0.0007582634647424589</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3075157031674003</v>
+        <v>0.1342900538703944</v>
       </c>
       <c r="J12">
-        <v>0.03215525494960758</v>
+        <v>0.03157302367614179</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9047683073592054</v>
+        <v>0.8151268273703067</v>
       </c>
       <c r="O12">
-        <v>1.65860678880415</v>
+        <v>1.644372098958769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.244459202027144</v>
+        <v>3.860729501942501</v>
       </c>
       <c r="C13">
-        <v>0.3183482004891118</v>
+        <v>1.032697269722178</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8526095333919841</v>
+        <v>1.413180155354354</v>
       </c>
       <c r="F13">
-        <v>2.345168293994817</v>
+        <v>3.234524827430761</v>
       </c>
       <c r="G13">
-        <v>0.002378283547937661</v>
+        <v>0.0007585098077186873</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3077374957090875</v>
+        <v>0.1340887572859515</v>
       </c>
       <c r="J13">
-        <v>0.03214345615200997</v>
+        <v>0.03142164197874564</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.904516978752099</v>
+        <v>0.8139838829401498</v>
       </c>
       <c r="O13">
-        <v>1.657936078375855</v>
+        <v>1.636616957205632</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.224047777596752</v>
+        <v>3.792841390099454</v>
       </c>
       <c r="C14">
-        <v>0.3129725683934623</v>
+        <v>1.014819729091982</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.8470219061403839</v>
+        <v>1.388076511097751</v>
       </c>
       <c r="F14">
-        <v>2.334781547039512</v>
+        <v>3.17885789070229</v>
       </c>
       <c r="G14">
-        <v>0.002378748093827416</v>
+        <v>0.0007593145279802213</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3084681412756538</v>
+        <v>0.1334603557797678</v>
       </c>
       <c r="J14">
-        <v>0.03210570887639008</v>
+        <v>0.03093159981077065</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9037067474141338</v>
+        <v>0.810288768631537</v>
       </c>
       <c r="O14">
-        <v>1.655785694067902</v>
+        <v>1.611499836376254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.211542543730843</v>
+        <v>3.751287441290856</v>
       </c>
       <c r="C15">
-        <v>0.3096784967901556</v>
+        <v>1.003878495073764</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8436063836765868</v>
+        <v>1.37274822524725</v>
       </c>
       <c r="F15">
-        <v>2.328446880848276</v>
+        <v>3.144913702440192</v>
       </c>
       <c r="G15">
-        <v>0.002379034279086256</v>
+        <v>0.0007598084874648058</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3089213126878292</v>
+        <v>0.1330967415141835</v>
       </c>
       <c r="J15">
-        <v>0.03208314892074426</v>
+        <v>0.03063419471229167</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9032176889707841</v>
+        <v>0.808049967725168</v>
       </c>
       <c r="O15">
-        <v>1.654496891815285</v>
+        <v>1.596246707968589</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.139840646183643</v>
+        <v>3.513578016387726</v>
       </c>
       <c r="C16">
-        <v>0.2907811733388712</v>
+        <v>0.9413102708528527</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8241415312233045</v>
+        <v>1.285612857043176</v>
       </c>
       <c r="F16">
-        <v>2.292566544770153</v>
+        <v>2.952638860075552</v>
       </c>
       <c r="G16">
-        <v>0.002380699436958995</v>
+        <v>0.0007626557424569869</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3116043789837164</v>
+        <v>0.1313285816791385</v>
       </c>
       <c r="J16">
-        <v>0.03196245004289011</v>
+        <v>0.02897049136950969</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9005261005563625</v>
+        <v>0.7955871613250594</v>
       </c>
       <c r="O16">
-        <v>1.647545241528007</v>
+        <v>1.510779834937665</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.095819858443804</v>
+        <v>3.368091235469819</v>
       </c>
       <c r="C17">
-        <v>0.2791703910248202</v>
+        <v>0.9030329716165681</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.812296857161158</v>
+        <v>1.232748030196177</v>
       </c>
       <c r="F17">
-        <v>2.270930122960152</v>
+        <v>2.836577128577062</v>
       </c>
       <c r="G17">
-        <v>0.002381743443620595</v>
+        <v>0.0007644178133334734</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3133270218654118</v>
+        <v>0.130513952296841</v>
       </c>
       <c r="J17">
-        <v>0.03189604155264902</v>
+        <v>0.02798431088247</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8989741351347789</v>
+        <v>0.7882587945282467</v>
       </c>
       <c r="O17">
-        <v>1.643666893777208</v>
+        <v>1.45999992284257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.070488253817928</v>
+        <v>3.284523102431422</v>
       </c>
       <c r="C18">
-        <v>0.2724857042475151</v>
+        <v>0.8810516957977086</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.805519494821624</v>
+        <v>1.202543490530232</v>
       </c>
       <c r="F18">
-        <v>2.258622948623838</v>
+        <v>2.770474569112508</v>
       </c>
       <c r="G18">
-        <v>0.002382352211998649</v>
+        <v>0.0007654371835376648</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3143459439790988</v>
+        <v>0.1301402274347581</v>
       </c>
       <c r="J18">
-        <v>0.03186064256943055</v>
+        <v>0.02742906113606125</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8981180280017185</v>
+        <v>0.7841563391250048</v>
       </c>
       <c r="O18">
-        <v>1.641577740715547</v>
+        <v>1.431367926839499</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.061909390458311</v>
+        <v>3.256246413551082</v>
       </c>
       <c r="C19">
-        <v>0.2702212822376282</v>
+        <v>0.8736148050805639</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.803230869401375</v>
+        <v>1.192350073210051</v>
       </c>
       <c r="F19">
-        <v>2.254479543308264</v>
+        <v>2.748201658015034</v>
       </c>
       <c r="G19">
-        <v>0.002382559754875252</v>
+        <v>0.0007657833542703227</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3146957534785919</v>
+        <v>0.1300295700018843</v>
       </c>
       <c r="J19">
-        <v>0.03184913669742784</v>
+        <v>0.0272430570536919</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.897834448023886</v>
+        <v>0.7827862995706028</v>
       </c>
       <c r="O19">
-        <v>1.64089466805666</v>
+        <v>1.421769525744821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.100507200497304</v>
+        <v>3.38356667216857</v>
       </c>
       <c r="C20">
-        <v>0.2804070507278311</v>
+        <v>0.9071039592303975</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8135540802659307</v>
+        <v>1.238354358332657</v>
       </c>
       <c r="F20">
-        <v>2.273219117356177</v>
+        <v>2.848863574217063</v>
       </c>
       <c r="G20">
-        <v>0.00238163145045358</v>
+        <v>0.0007642296348858679</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3131407333602922</v>
+        <v>0.130590758990806</v>
       </c>
       <c r="J20">
-        <v>0.03190282112625198</v>
+        <v>0.02808803703441143</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8991355641677785</v>
+        <v>0.7890271683863688</v>
       </c>
       <c r="O20">
-        <v>1.644065089959327</v>
+        <v>1.465345297873085</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.230043662036223</v>
+        <v>3.812775551418611</v>
       </c>
       <c r="C21">
-        <v>0.3145518020211284</v>
+        <v>1.020068837086001</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8486616560693818</v>
+        <v>1.395439877537257</v>
       </c>
       <c r="F21">
-        <v>2.337826650423267</v>
+        <v>3.195176388174957</v>
       </c>
       <c r="G21">
-        <v>0.002378611304292691</v>
+        <v>0.000759077945655128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.308252359294297</v>
+        <v>0.1336404671026195</v>
       </c>
       <c r="J21">
-        <v>0.03211667913414828</v>
+        <v>0.03107495777449998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9039432253252215</v>
+        <v>0.8113689708657432</v>
       </c>
       <c r="O21">
-        <v>1.656411399617411</v>
+        <v>1.618849679330253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.314586047322734</v>
+        <v>4.094572100196558</v>
       </c>
       <c r="C22">
-        <v>0.3368075906011541</v>
+        <v>1.094301429864657</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8719223940838816</v>
+        <v>1.50023069820503</v>
       </c>
       <c r="F22">
-        <v>2.381282191041208</v>
+        <v>3.428261971231478</v>
       </c>
       <c r="G22">
-        <v>0.002376710811024182</v>
+        <v>0.0007557584100747591</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3053093118736925</v>
+        <v>0.1365748556795161</v>
       </c>
       <c r="J22">
-        <v>0.03228154798041061</v>
+        <v>0.03314873479004987</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9074091766364205</v>
+        <v>0.827059290629208</v>
       </c>
       <c r="O22">
-        <v>1.665749185988403</v>
+        <v>1.724987833370534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.269475400610418</v>
+        <v>3.944039851651212</v>
       </c>
       <c r="C23">
-        <v>0.3249348309883828</v>
+        <v>1.054640364784689</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8594787531639696</v>
+        <v>1.444090353084533</v>
       </c>
       <c r="F23">
-        <v>2.357976234938775</v>
+        <v>3.303194167882566</v>
       </c>
       <c r="G23">
-        <v>0.00237771844869302</v>
+        <v>0.0007575260226391122</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3068569590162618</v>
+        <v>0.1349176722197711</v>
       </c>
       <c r="J23">
-        <v>0.03219124850687649</v>
+        <v>0.03203002227783358</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.905529772615111</v>
+        <v>0.8185811175345918</v>
       </c>
       <c r="O23">
-        <v>1.660648950008891</v>
+        <v>1.667772646890825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.098388126138389</v>
+        <v>3.376569999327216</v>
       </c>
       <c r="C24">
-        <v>0.2798479864259207</v>
+        <v>0.9052633893163033</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8129855891032491</v>
+        <v>1.235819154829187</v>
       </c>
       <c r="F24">
-        <v>2.272183852211185</v>
+        <v>2.843306942026146</v>
       </c>
       <c r="G24">
-        <v>0.002381682056004994</v>
+        <v>0.0007643146905923671</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3132248654714083</v>
+        <v>0.1305557410180285</v>
       </c>
       <c r="J24">
-        <v>0.03189974742387136</v>
+        <v>0.02804110610164656</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8990624695124438</v>
+        <v>0.7886794426218842</v>
       </c>
       <c r="O24">
-        <v>1.64388462770745</v>
+        <v>1.462926910591193</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9133890096939012</v>
+        <v>2.768607373157806</v>
       </c>
       <c r="C25">
-        <v>0.2309682053049471</v>
+        <v>0.7454233490244349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7641871879279591</v>
+        <v>1.018733342156992</v>
       </c>
       <c r="F25">
-        <v>2.184896637946764</v>
+        <v>2.371773741923803</v>
       </c>
       <c r="G25">
-        <v>0.002386274392122229</v>
+        <v>0.000771864336299366</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3211672351900248</v>
+        <v>0.129428896702855</v>
       </c>
       <c r="J25">
-        <v>0.03169215225198485</v>
+        <v>0.02418906743961458</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8934844439991991</v>
+        <v>0.7606890479082153</v>
       </c>
       <c r="O25">
-        <v>1.631209127962109</v>
+        <v>1.26362666380885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.323082348335845</v>
+        <v>0.6672359834057886</v>
       </c>
       <c r="C2">
-        <v>0.6283788531156915</v>
+        <v>0.1297904269018488</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8638484490892751</v>
+        <v>0.3960254710872135</v>
       </c>
       <c r="F2">
-        <v>2.041228175216901</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007776429216341717</v>
+        <v>0.2110628960198966</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002243390163996217</v>
       </c>
       <c r="I2">
-        <v>0.1312118746826414</v>
+        <v>0.0005922264137843136</v>
       </c>
       <c r="J2">
-        <v>0.02166866205215712</v>
+        <v>0.2283017462567969</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2121898528986765</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7196854862260977</v>
       </c>
       <c r="N2">
-        <v>0.7433265404262954</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.132180613187387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5491669164407398</v>
+      </c>
+      <c r="P2">
+        <v>0.7745964537144161</v>
+      </c>
+      <c r="Q2">
+        <v>0.8737350686639331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.021826844772789</v>
+        <v>0.5823707917875254</v>
       </c>
       <c r="C3">
-        <v>0.5492574276931919</v>
+        <v>0.1189826115410852</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7612952221526257</v>
+        <v>0.3503305041455391</v>
       </c>
       <c r="F3">
-        <v>1.825633372038155</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007817073371997288</v>
+        <v>0.2079925775645819</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.422618193980263E-05</v>
       </c>
       <c r="I3">
-        <v>0.1338402658266951</v>
+        <v>0.0004297434454487714</v>
       </c>
       <c r="J3">
-        <v>0.02012561302074545</v>
+        <v>0.2303066783043306</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2161184799777409</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6322564274187812</v>
       </c>
       <c r="N3">
-        <v>0.7333952922306253</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.05114872090968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4788334801154051</v>
+      </c>
+      <c r="P3">
+        <v>0.7922633471739609</v>
+      </c>
+      <c r="Q3">
+        <v>0.8712033724030448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837003345112834</v>
+        <v>0.5298892823861365</v>
       </c>
       <c r="C4">
-        <v>0.5007166492059127</v>
+        <v>0.1124231067646164</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6993184096681233</v>
+        <v>0.3222397528681995</v>
       </c>
       <c r="F4">
-        <v>1.696825840422193</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007842793710274265</v>
+        <v>0.2063302480202722</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.13676815829411E-05</v>
       </c>
       <c r="I4">
-        <v>0.1360906713255758</v>
+        <v>0.0004288729183890005</v>
       </c>
       <c r="J4">
-        <v>0.01924996974047843</v>
+        <v>0.2317047254400322</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2186890814507958</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5784112932662708</v>
       </c>
       <c r="N4">
-        <v>0.7281453853854316</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.004914464834499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.435614092116829</v>
+      </c>
+      <c r="P4">
+        <v>0.8036495021576577</v>
+      </c>
+      <c r="Q4">
+        <v>0.8704654451514102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.761699108820835</v>
+        <v>0.5078511386594187</v>
       </c>
       <c r="C5">
-        <v>0.4809382160927385</v>
+        <v>0.110014473579362</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6742846351164786</v>
+        <v>0.3107723029481591</v>
       </c>
       <c r="F5">
-        <v>1.645153087877958</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007853471848766663</v>
+        <v>0.2054787441570838</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.042306772555904E-05</v>
       </c>
       <c r="I5">
-        <v>0.1371588320705897</v>
+        <v>0.0005176537862734421</v>
       </c>
       <c r="J5">
-        <v>0.01890985828266878</v>
+        <v>0.2321948707731707</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2195912418039203</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5564255960442495</v>
       </c>
       <c r="N5">
-        <v>0.7262112816329633</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9868959777751911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4179902844712871</v>
+      </c>
+      <c r="P5">
+        <v>0.808532079916553</v>
+      </c>
+      <c r="Q5">
+        <v>0.8696273037392928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.749194989241488</v>
+        <v>0.5035030795921784</v>
       </c>
       <c r="C6">
-        <v>0.4776539471218939</v>
+        <v>0.1099188429786011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6701404679442504</v>
+        <v>0.3088561447832348</v>
       </c>
       <c r="F6">
-        <v>1.636619992441268</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007855256967273483</v>
+        <v>0.2050622929561214</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.717367283002538E-05</v>
       </c>
       <c r="I6">
-        <v>0.1373450723053509</v>
+        <v>0.000621119068468623</v>
       </c>
       <c r="J6">
-        <v>0.01885435540829761</v>
+        <v>0.232131365252414</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2195186155294326</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5527717171396631</v>
       </c>
       <c r="N6">
-        <v>0.7259023001168714</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9839519229695384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4150629224985849</v>
+      </c>
+      <c r="P6">
+        <v>0.809487441451413</v>
+      </c>
+      <c r="Q6">
+        <v>0.8686011323905518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835987745030394</v>
+        <v>0.527720509514694</v>
       </c>
       <c r="C7">
-        <v>0.5004499107515699</v>
+        <v>0.1132206802544573</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.698979929721574</v>
+        <v>0.3220547056579903</v>
       </c>
       <c r="F7">
-        <v>1.696125756108529</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007842936916484216</v>
+        <v>0.2055591971347255</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.183118815117901E-05</v>
       </c>
       <c r="I7">
-        <v>0.136104476613184</v>
+        <v>0.0006539572622630274</v>
       </c>
       <c r="J7">
-        <v>0.0192453168832607</v>
+        <v>0.2313098206206092</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2180885644573713</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5781135656233545</v>
       </c>
       <c r="N7">
-        <v>0.7281184803800969</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.004668211862949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4353758493649593</v>
+      </c>
+      <c r="P7">
+        <v>0.8040998606963861</v>
+      </c>
+      <c r="Q7">
+        <v>0.8680021089814431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.219163219189909</v>
+        <v>0.6355511986264162</v>
       </c>
       <c r="C8">
-        <v>0.6010845937200884</v>
+        <v>0.127157583417457</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.828265480332476</v>
+        <v>0.3802363865776073</v>
       </c>
       <c r="F8">
-        <v>1.96610060195141</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007790287473001964</v>
+        <v>0.2089557658942454</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001239526081442399</v>
       </c>
       <c r="I8">
-        <v>0.1319804799579032</v>
+        <v>0.0007856285549641129</v>
       </c>
       <c r="J8">
-        <v>0.02112088991916039</v>
+        <v>0.2284318853350058</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2127086917756991</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6895709235071195</v>
       </c>
       <c r="N8">
-        <v>0.7397213295226948</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.103471440570814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5249199039755297</v>
+      </c>
+      <c r="P8">
+        <v>0.7811361998372242</v>
+      </c>
+      <c r="Q8">
+        <v>0.8694643499684531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.972981138633202</v>
+        <v>0.8474108876627042</v>
       </c>
       <c r="C9">
-        <v>0.7991367027334775</v>
+        <v>0.1536678462884566</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.090992545147387</v>
+        <v>0.4942357955431831</v>
       </c>
       <c r="F9">
-        <v>2.527746007692372</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007692886394071748</v>
+        <v>0.2188519706282861</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001421638336879694</v>
       </c>
       <c r="I9">
-        <v>0.1293731298676235</v>
+        <v>0.001539992066340368</v>
       </c>
       <c r="J9">
-        <v>0.02543304743260322</v>
+        <v>0.2248695630080277</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2045445199497244</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9069451557307389</v>
       </c>
       <c r="N9">
-        <v>0.7695866196833947</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.328174325703827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7003837610266217</v>
+      </c>
+      <c r="P9">
+        <v>0.7397498514804823</v>
+      </c>
+      <c r="Q9">
+        <v>0.8835064845702902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.53019517826948</v>
+        <v>1.001267187052264</v>
       </c>
       <c r="C10">
-        <v>0.9456829968745524</v>
+        <v>0.1735300843018592</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.291673520473978</v>
+        <v>0.5438216180882449</v>
       </c>
       <c r="F10">
-        <v>2.965973833711274</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007624554577015859</v>
+        <v>0.223338490084906</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003111900151214986</v>
       </c>
       <c r="I10">
-        <v>0.1314347024930917</v>
+        <v>0.002771295673753116</v>
       </c>
       <c r="J10">
-        <v>0.02908469295313054</v>
+        <v>0.2210785794171812</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1972180207245717</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.065997063808538</v>
       </c>
       <c r="N10">
-        <v>0.7964389214840537</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.516654381703546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7991839189686374</v>
+      </c>
+      <c r="P10">
+        <v>0.715589633033197</v>
+      </c>
+      <c r="Q10">
+        <v>0.8854309679698673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.784893282004703</v>
+        <v>1.076572010583249</v>
       </c>
       <c r="C11">
-        <v>1.012726889053027</v>
+        <v>0.1791790612090125</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.38514243326911</v>
+        <v>0.3115495175362923</v>
       </c>
       <c r="F11">
-        <v>3.172357712756224</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007594089256936482</v>
+        <v>0.1935107868750237</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0209577875582454</v>
       </c>
       <c r="I11">
-        <v>0.1333895674252048</v>
+        <v>0.003608154223284643</v>
       </c>
       <c r="J11">
-        <v>0.03087456458753834</v>
+        <v>0.2031425261318205</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1776678126374627</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.137664976501696</v>
       </c>
       <c r="N11">
-        <v>0.8098591925404008</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.608575217667351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6007942979702321</v>
+      </c>
+      <c r="P11">
+        <v>0.7382439438647879</v>
+      </c>
+      <c r="Q11">
+        <v>0.7847513468040859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.881558387795053</v>
+        <v>1.111276857679286</v>
       </c>
       <c r="C12">
-        <v>1.038182937757398</v>
+        <v>0.178437386047591</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.420897478926108</v>
+        <v>0.1621678730091922</v>
       </c>
       <c r="F12">
-        <v>3.251656473018841</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007582634647424589</v>
+        <v>0.1699957079679066</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05907142026371304</v>
       </c>
       <c r="I12">
-        <v>0.1342900538703944</v>
+        <v>0.003668653284290002</v>
       </c>
       <c r="J12">
-        <v>0.03157302367614179</v>
+        <v>0.1899189932973115</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1645892599460339</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.164799844674349</v>
       </c>
       <c r="N12">
-        <v>0.8151268273703067</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.644372098958769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4381571642077731</v>
+      </c>
+      <c r="P12">
+        <v>0.7677000788552206</v>
+      </c>
+      <c r="Q12">
+        <v>0.7072389876215937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.860729501942501</v>
+        <v>1.113483823760674</v>
       </c>
       <c r="C13">
-        <v>1.032697269722178</v>
+        <v>0.1740716122169204</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.413180155354354</v>
+        <v>0.06733739350369916</v>
       </c>
       <c r="F13">
-        <v>3.234524827430761</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007585098077186873</v>
+        <v>0.1486980142123429</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1143104990408972</v>
       </c>
       <c r="I13">
-        <v>0.1340887572859515</v>
+        <v>0.003461319188002854</v>
       </c>
       <c r="J13">
-        <v>0.03142164197874564</v>
+        <v>0.1788510293785421</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1546710198926</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.159004747739743</v>
       </c>
       <c r="N13">
-        <v>0.8139838829401498</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.636616957205632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2942218771528289</v>
+      </c>
+      <c r="P13">
+        <v>0.8037177983083055</v>
+      </c>
+      <c r="Q13">
+        <v>0.6388771472250312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.792841390099454</v>
+        <v>1.099690612635868</v>
       </c>
       <c r="C14">
-        <v>1.014819729091982</v>
+        <v>0.1696672689528071</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.388076511097751</v>
+        <v>0.0332359975078802</v>
       </c>
       <c r="F14">
-        <v>3.17885789070229</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007593145279802213</v>
+        <v>0.1349126767130251</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.163342664977506</v>
       </c>
       <c r="I14">
-        <v>0.1334603557797678</v>
+        <v>0.003279433884181948</v>
       </c>
       <c r="J14">
-        <v>0.03093159981077065</v>
+        <v>0.172094744893279</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1491832807875788</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.140046598631784</v>
       </c>
       <c r="N14">
-        <v>0.810288768631537</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.611499836376254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2061230586040885</v>
+      </c>
+      <c r="P14">
+        <v>0.8324605404632166</v>
+      </c>
+      <c r="Q14">
+        <v>0.5954511456658906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.751287441290856</v>
+        <v>1.088498882859653</v>
       </c>
       <c r="C15">
-        <v>1.003878495073764</v>
+        <v>0.1681546417166544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.37274822524725</v>
+        <v>0.02918549132823545</v>
       </c>
       <c r="F15">
-        <v>3.144913702440192</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007598084874648058</v>
+        <v>0.1316582155171169</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1757425763198057</v>
       </c>
       <c r="I15">
-        <v>0.1330967415141835</v>
+        <v>0.003284466223685278</v>
       </c>
       <c r="J15">
-        <v>0.03063419471229167</v>
+        <v>0.1707394138022806</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1482606291028468</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.128369136914358</v>
       </c>
       <c r="N15">
-        <v>0.808049967725168</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.596246707968589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1855552920364154</v>
+      </c>
+      <c r="P15">
+        <v>0.8403583135390349</v>
+      </c>
+      <c r="Q15">
+        <v>0.585685498620812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.513578016387726</v>
+        <v>1.0203646432509</v>
       </c>
       <c r="C16">
-        <v>0.9413102708528527</v>
+        <v>0.1610542844091469</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.285612857043176</v>
+        <v>0.02989197000299448</v>
       </c>
       <c r="F16">
-        <v>2.952638860075552</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007626557424569869</v>
+        <v>0.1335877122083389</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1625373262830863</v>
       </c>
       <c r="I16">
-        <v>0.1313285816791385</v>
+        <v>0.002901022243987583</v>
       </c>
       <c r="J16">
-        <v>0.02897049136950969</v>
+        <v>0.1742288440530544</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1528447841703144</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.060960327399243</v>
       </c>
       <c r="N16">
-        <v>0.7955871613250594</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.510779834937665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1768706378554548</v>
+      </c>
+      <c r="P16">
+        <v>0.8406458190848269</v>
+      </c>
+      <c r="Q16">
+        <v>0.5969381142945167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.368091235469819</v>
+        <v>0.9754619249379459</v>
       </c>
       <c r="C17">
-        <v>0.9030329716165681</v>
+        <v>0.1579823362151416</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.232748030196177</v>
+        <v>0.04311681594908379</v>
       </c>
       <c r="F17">
-        <v>2.836577128577062</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007644178133334734</v>
+        <v>0.1422729309182209</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245396044988212</v>
       </c>
       <c r="I17">
-        <v>0.130513952296841</v>
+        <v>0.00273257628996415</v>
       </c>
       <c r="J17">
-        <v>0.02798431088247</v>
+        <v>0.180484299286956</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1592328898703972</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.019427266741843</v>
       </c>
       <c r="N17">
-        <v>0.7882587945282467</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.45999992284257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2139591324034562</v>
+      </c>
+      <c r="P17">
+        <v>0.8257639950021343</v>
+      </c>
+      <c r="Q17">
+        <v>0.6283668478682571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.284523102431422</v>
+        <v>0.9472451952278789</v>
       </c>
       <c r="C18">
-        <v>0.8810516957977086</v>
+        <v>0.1573445211281097</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.202543490530232</v>
+        <v>0.09625600249764332</v>
       </c>
       <c r="F18">
-        <v>2.770474569112508</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007654371835376648</v>
+        <v>0.1589772889809424</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07176504963264563</v>
       </c>
       <c r="I18">
-        <v>0.1301402274347581</v>
+        <v>0.002450889338712514</v>
       </c>
       <c r="J18">
-        <v>0.02742906113606125</v>
+        <v>0.1903562590454868</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.168716073511499</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9954427135246817</v>
       </c>
       <c r="N18">
-        <v>0.7841563391250048</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.431367926839499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3076060350571126</v>
+      </c>
+      <c r="P18">
+        <v>0.7979107718327398</v>
+      </c>
+      <c r="Q18">
+        <v>0.6844177743152784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.256246413551082</v>
+        <v>0.9309184633091547</v>
       </c>
       <c r="C19">
-        <v>0.8736148050805639</v>
+        <v>0.1604209054773946</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.192350073210051</v>
+        <v>0.2194449834365315</v>
       </c>
       <c r="F19">
-        <v>2.748201658015034</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007657833542703227</v>
+        <v>0.1811492920684614</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02694837758008362</v>
       </c>
       <c r="I19">
-        <v>0.1300295700018843</v>
+        <v>0.002617119466244766</v>
       </c>
       <c r="J19">
-        <v>0.0272430570536919</v>
+        <v>0.2023470703761205</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.180030427173218</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.98739978089327</v>
       </c>
       <c r="N19">
-        <v>0.7827862995706028</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.421769525744821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4602162297562913</v>
+      </c>
+      <c r="P19">
+        <v>0.767132462476269</v>
+      </c>
+      <c r="Q19">
+        <v>0.756541123649086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.38356667216857</v>
+        <v>0.955032018083358</v>
       </c>
       <c r="C20">
-        <v>0.9071039592303975</v>
+        <v>0.1709529451468086</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.238354358332657</v>
+        <v>0.5292633653538559</v>
       </c>
       <c r="F20">
-        <v>2.848863574217063</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007642296348858679</v>
+        <v>0.2195966631125614</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00258682501834917</v>
       </c>
       <c r="I20">
-        <v>0.130590758990806</v>
+        <v>0.00312901301635371</v>
       </c>
       <c r="J20">
-        <v>0.02808803703441143</v>
+        <v>0.2207267091627756</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1971801061603244</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.024260988771715</v>
       </c>
       <c r="N20">
-        <v>0.7890271683863688</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.465345297873085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7719848533005873</v>
+      </c>
+      <c r="P20">
+        <v>0.7234597151387163</v>
+      </c>
+      <c r="Q20">
+        <v>0.8766690123511154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.812775551418611</v>
+        <v>1.072241481759363</v>
       </c>
       <c r="C21">
-        <v>1.020068837086001</v>
+        <v>0.1867230185560516</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.395439877537257</v>
+        <v>0.6203839493461061</v>
       </c>
       <c r="F21">
-        <v>3.195176388174957</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.000759077945655128</v>
+        <v>0.2297737010126752</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004213226024853967</v>
       </c>
       <c r="I21">
-        <v>0.1336404671026195</v>
+        <v>0.00416933491057847</v>
       </c>
       <c r="J21">
-        <v>0.03107495777449998</v>
+        <v>0.2213087748021536</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1951904049835136</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.14629610799318</v>
       </c>
       <c r="N21">
-        <v>0.8113689708657432</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.618849679330253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8946302787736471</v>
+      </c>
+      <c r="P21">
+        <v>0.7008905594402037</v>
+      </c>
+      <c r="Q21">
+        <v>0.8997335156294639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.094572100196558</v>
+        <v>1.151511481900059</v>
       </c>
       <c r="C22">
-        <v>1.094301429864657</v>
+        <v>0.1957383587566852</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.50023069820503</v>
+        <v>0.6625990148231153</v>
       </c>
       <c r="F22">
-        <v>3.428261971231478</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007557584100747591</v>
+        <v>0.2357894111767962</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005429240739969532</v>
       </c>
       <c r="I22">
-        <v>0.1365748556795161</v>
+        <v>0.004676062572690043</v>
       </c>
       <c r="J22">
-        <v>0.03314873479004987</v>
+        <v>0.2214154889239168</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.193861593310686</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.225966184174581</v>
       </c>
       <c r="N22">
-        <v>0.827059290629208</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.724987833370534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9595015661561064</v>
+      </c>
+      <c r="P22">
+        <v>0.6876031835947458</v>
+      </c>
+      <c r="Q22">
+        <v>0.9128800858128301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.944039851651212</v>
+        <v>1.111510880823204</v>
       </c>
       <c r="C23">
-        <v>1.054640364784689</v>
+        <v>0.1898839529115293</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.444090353084533</v>
+        <v>0.6400918825187603</v>
       </c>
       <c r="F23">
-        <v>3.303194167882566</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007575260226391122</v>
+        <v>0.2334267151620111</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004767126990500969</v>
       </c>
       <c r="I23">
-        <v>0.1349176722197711</v>
+        <v>0.004115163604657468</v>
       </c>
       <c r="J23">
-        <v>0.03203002227783358</v>
+        <v>0.22179478863589</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1952408886884172</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.183450842312453</v>
       </c>
       <c r="N23">
-        <v>0.8185811175345918</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.667772646890825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9248725187973648</v>
+      </c>
+      <c r="P23">
+        <v>0.6940042225294576</v>
+      </c>
+      <c r="Q23">
+        <v>0.9085757149265135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.376569999327216</v>
+        <v>0.9558233877338864</v>
       </c>
       <c r="C24">
-        <v>0.9052633893163033</v>
+        <v>0.1695764942327855</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.235819154829187</v>
+        <v>0.5549565401402887</v>
       </c>
       <c r="F24">
-        <v>2.843306942026146</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007643146905923671</v>
+        <v>0.2237242197178588</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002603633851713694</v>
       </c>
       <c r="I24">
-        <v>0.1305557410180285</v>
+        <v>0.00267873734109525</v>
       </c>
       <c r="J24">
-        <v>0.02804110610164656</v>
+        <v>0.2229111922053448</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1997698266825285</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.022336238766684</v>
       </c>
       <c r="N24">
-        <v>0.7886794426218842</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.462926910591193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7939055073969996</v>
+      </c>
+      <c r="P24">
+        <v>0.7204625062873689</v>
+      </c>
+      <c r="Q24">
+        <v>0.889994463720015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.768607373157806</v>
+        <v>0.7869670668514459</v>
       </c>
       <c r="C25">
-        <v>0.7454233490244349</v>
+        <v>0.1479566987160013</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.018733342156992</v>
+        <v>0.4633421396922159</v>
       </c>
       <c r="F25">
-        <v>2.371773741923803</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.000771864336299366</v>
+        <v>0.2145990145296324</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0009417404013805086</v>
       </c>
       <c r="I25">
-        <v>0.129428896702855</v>
+        <v>0.001631226114943374</v>
       </c>
       <c r="J25">
-        <v>0.02418906743961458</v>
+        <v>0.2249707065400202</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2055291784880833</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8482486173569157</v>
       </c>
       <c r="N25">
-        <v>0.7606890479082153</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.26362666380885</v>
+        <v>0.652905771902752</v>
+      </c>
+      <c r="P25">
+        <v>0.751308954758386</v>
+      </c>
+      <c r="Q25">
+        <v>0.8745643930271711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6672359834057886</v>
+        <v>0.6528866068678383</v>
       </c>
       <c r="C2">
-        <v>0.1297904269018488</v>
+        <v>0.1298834964636342</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3960254710872135</v>
+        <v>0.3964705683446255</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2110628960198966</v>
+        <v>0.1851760077935154</v>
       </c>
       <c r="H2">
-        <v>0.0002243390163996217</v>
+        <v>0.0002460778138950737</v>
       </c>
       <c r="I2">
-        <v>0.0005922264137843136</v>
+        <v>0.000811966114707019</v>
       </c>
       <c r="J2">
-        <v>0.2283017462567969</v>
+        <v>0.2559805376652875</v>
       </c>
       <c r="K2">
-        <v>0.2121898528986765</v>
+        <v>0.2004488200909016</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1182727032639228</v>
       </c>
       <c r="M2">
-        <v>0.7196854862260977</v>
+        <v>0.04292270292402289</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5491669164407398</v>
+        <v>0.7197329190939996</v>
       </c>
       <c r="P2">
-        <v>0.7745964537144161</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8737350686639331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5495600612172211</v>
+      </c>
+      <c r="R2">
+        <v>0.7701069672941685</v>
+      </c>
+      <c r="S2">
+        <v>0.8424812102182955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5823707917875254</v>
+        <v>0.573466324758499</v>
       </c>
       <c r="C3">
-        <v>0.1189826115410852</v>
+        <v>0.1163386110185058</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3503305041455391</v>
+        <v>0.3510611864001518</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2079925775645819</v>
+        <v>0.1837464231640311</v>
       </c>
       <c r="H3">
-        <v>1.422618193980263E-05</v>
+        <v>2.276953014757055E-05</v>
       </c>
       <c r="I3">
-        <v>0.0004297434454487714</v>
+        <v>0.0005845754129611969</v>
       </c>
       <c r="J3">
-        <v>0.2303066783043306</v>
+        <v>0.2569857169570611</v>
       </c>
       <c r="K3">
-        <v>0.2161184799777409</v>
+        <v>0.2049022532861287</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1229453874496365</v>
       </c>
       <c r="M3">
-        <v>0.6322564274187812</v>
+        <v>0.04310418952415418</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4788334801154051</v>
+        <v>0.6325942973579117</v>
       </c>
       <c r="P3">
-        <v>0.7922633471739609</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8712033724030448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4792708320621699</v>
+      </c>
+      <c r="R3">
+        <v>0.7846206035667471</v>
+      </c>
+      <c r="S3">
+        <v>0.8436001838395413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5298892823861365</v>
+        <v>0.5242078963117081</v>
       </c>
       <c r="C4">
-        <v>0.1124231067646164</v>
+        <v>0.1081674917583584</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3222397528681995</v>
+        <v>0.3231455191574426</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2063302480202722</v>
+        <v>0.183085811025876</v>
       </c>
       <c r="H4">
-        <v>1.13676815829411E-05</v>
+        <v>4.785432046627847E-06</v>
       </c>
       <c r="I4">
-        <v>0.0004288729183890005</v>
+        <v>0.000531623204008902</v>
       </c>
       <c r="J4">
-        <v>0.2317047254400322</v>
+        <v>0.2576666027520957</v>
       </c>
       <c r="K4">
-        <v>0.2186890814507958</v>
+        <v>0.2077496013187972</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1260013500861721</v>
       </c>
       <c r="M4">
-        <v>0.5784112932662708</v>
+        <v>0.04361625350046472</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.435614092116829</v>
+        <v>0.5789163265615542</v>
       </c>
       <c r="P4">
-        <v>0.8036495021576577</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8704654451514102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4360710883645424</v>
+      </c>
+      <c r="R4">
+        <v>0.7941100304716073</v>
+      </c>
+      <c r="S4">
+        <v>0.8449116155450298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5078511386594187</v>
+        <v>0.5034578369636051</v>
       </c>
       <c r="C5">
-        <v>0.110014473579362</v>
+        <v>0.1051307323341959</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3107723029481591</v>
+        <v>0.3117496398950763</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2054787441570838</v>
+        <v>0.1826485155388511</v>
       </c>
       <c r="H5">
-        <v>4.042306772555904E-05</v>
+        <v>2.598205112835927E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005176537862734421</v>
+        <v>0.0006086654382464474</v>
       </c>
       <c r="J5">
-        <v>0.2321948707731707</v>
+        <v>0.2578341409395435</v>
       </c>
       <c r="K5">
-        <v>0.2195912418039203</v>
+        <v>0.2087597994041097</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1271859919287763</v>
       </c>
       <c r="M5">
-        <v>0.5564255960442495</v>
+        <v>0.0438974437700721</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4179902844712871</v>
+        <v>0.5569968937967218</v>
       </c>
       <c r="P5">
-        <v>0.808532079916553</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8696273037392928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4184537038560592</v>
+      </c>
+      <c r="R5">
+        <v>0.798239494956217</v>
+      </c>
+      <c r="S5">
+        <v>0.8448727557042162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5035030795921784</v>
+        <v>0.4993274692644576</v>
       </c>
       <c r="C6">
-        <v>0.1099188429786011</v>
+        <v>0.1049461998387855</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3088561447832348</v>
+        <v>0.3098455765007344</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2050622929561214</v>
+        <v>0.182310358214302</v>
       </c>
       <c r="H6">
-        <v>4.717367283002538E-05</v>
+        <v>3.129910859978047E-05</v>
       </c>
       <c r="I6">
-        <v>0.000621119068468623</v>
+        <v>0.0007266819968521077</v>
       </c>
       <c r="J6">
-        <v>0.232131365252414</v>
+        <v>0.2577094620362743</v>
       </c>
       <c r="K6">
-        <v>0.2195186155294326</v>
+        <v>0.2087125898356526</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1272547823312067</v>
       </c>
       <c r="M6">
-        <v>0.5527717171396631</v>
+        <v>0.04391546981266714</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4150629224985849</v>
+        <v>0.5533544854671675</v>
       </c>
       <c r="P6">
-        <v>0.809487441451413</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8686011323905518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4155273850872376</v>
+      </c>
+      <c r="R6">
+        <v>0.7990826247367622</v>
+      </c>
+      <c r="S6">
+        <v>0.843990911744612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.527720509514694</v>
+        <v>0.5217639916779433</v>
       </c>
       <c r="C7">
-        <v>0.1132206802544573</v>
+        <v>0.1087831157808097</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3220547056579903</v>
+        <v>0.3230275770810351</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2055591971347255</v>
+        <v>0.1840362857032005</v>
       </c>
       <c r="H7">
-        <v>1.183118815117901E-05</v>
+        <v>5.175257662193289E-06</v>
       </c>
       <c r="I7">
-        <v>0.0006539572622630274</v>
+        <v>0.0007993696136798789</v>
       </c>
       <c r="J7">
-        <v>0.2313098206206092</v>
+        <v>0.2546961155421315</v>
       </c>
       <c r="K7">
-        <v>0.2180885644573713</v>
+        <v>0.2069640062901392</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1255506173344063</v>
       </c>
       <c r="M7">
-        <v>0.5781135656233545</v>
+        <v>0.0434753096114493</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4353758493649593</v>
+        <v>0.5780017729772027</v>
       </c>
       <c r="P7">
-        <v>0.8040998606963861</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8680021089814431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4356800361751354</v>
+      </c>
+      <c r="R7">
+        <v>0.79480160841565</v>
+      </c>
+      <c r="S7">
+        <v>0.8409996299077989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6355511986264162</v>
+        <v>0.6220996072261471</v>
       </c>
       <c r="C8">
-        <v>0.127157583417457</v>
+        <v>0.1256328826064106</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3802363865776073</v>
+        <v>0.3810048053588346</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2089557658942454</v>
+        <v>0.1893353795810881</v>
       </c>
       <c r="H8">
-        <v>0.0001239526081442399</v>
+        <v>0.0001410781971720176</v>
       </c>
       <c r="I8">
-        <v>0.0007856285549641129</v>
+        <v>0.001036811952207728</v>
       </c>
       <c r="J8">
-        <v>0.2284318853350058</v>
+        <v>0.2475695239549367</v>
       </c>
       <c r="K8">
-        <v>0.2127086917756991</v>
+        <v>0.2005200219782335</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1191021767241551</v>
       </c>
       <c r="M8">
-        <v>0.6895709235071195</v>
+        <v>0.04254371510536448</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5249199039755297</v>
+        <v>0.6876472520058599</v>
       </c>
       <c r="P8">
-        <v>0.7811361998372242</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8694643499684531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5248160693720436</v>
+      </c>
+      <c r="R8">
+        <v>0.7764132058046442</v>
+      </c>
+      <c r="S8">
+        <v>0.834653112100753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8474108876627042</v>
+        <v>0.8193661994284298</v>
       </c>
       <c r="C9">
-        <v>0.1536678462884566</v>
+        <v>0.1590966825041846</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4942357955431831</v>
+        <v>0.4943548287137105</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2188519706282861</v>
+        <v>0.1966394942034313</v>
       </c>
       <c r="H9">
-        <v>0.001421638336879694</v>
+        <v>0.001424291794409616</v>
       </c>
       <c r="I9">
-        <v>0.001539992066340368</v>
+        <v>0.00182264659633713</v>
       </c>
       <c r="J9">
-        <v>0.2248695630080277</v>
+        <v>0.2437418699923413</v>
       </c>
       <c r="K9">
-        <v>0.2045445199497244</v>
+        <v>0.1906014517414114</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1089044088519024</v>
       </c>
       <c r="M9">
-        <v>0.9069451557307389</v>
+        <v>0.04430410874783064</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7003837610266217</v>
+        <v>0.9036016204080397</v>
       </c>
       <c r="P9">
-        <v>0.7397498514804823</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8835064845702902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6999632819583823</v>
+      </c>
+      <c r="R9">
+        <v>0.7434277819210919</v>
+      </c>
+      <c r="S9">
+        <v>0.8371394220553299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.001267187052264</v>
+        <v>0.9605939990924526</v>
       </c>
       <c r="C10">
-        <v>0.1735300843018592</v>
+        <v>0.1828110789857647</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5438216180882449</v>
+        <v>0.5438670716130076</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.223338490084906</v>
+        <v>0.2097600654423388</v>
       </c>
       <c r="H10">
-        <v>0.003111900151214986</v>
+        <v>0.003053169729795524</v>
       </c>
       <c r="I10">
-        <v>0.002771295673753116</v>
+        <v>0.003011495744090098</v>
       </c>
       <c r="J10">
-        <v>0.2210785794171812</v>
+        <v>0.2266869942122369</v>
       </c>
       <c r="K10">
-        <v>0.1972180207245717</v>
+        <v>0.1810275165010289</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1013133701709812</v>
       </c>
       <c r="M10">
-        <v>1.065997063808538</v>
+        <v>0.04632958882962512</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7991839189686374</v>
+        <v>1.057780163635243</v>
       </c>
       <c r="P10">
-        <v>0.715589633033197</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8854309679698673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7975739515390714</v>
+      </c>
+      <c r="R10">
+        <v>0.7277403084729599</v>
+      </c>
+      <c r="S10">
+        <v>0.8225663076424183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.076572010583249</v>
+        <v>1.031690668981582</v>
       </c>
       <c r="C11">
-        <v>0.1791790612090125</v>
+        <v>0.1853615650428679</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3115495175362923</v>
+        <v>0.3119891138477513</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1935107868750237</v>
+        <v>0.2024979411372243</v>
       </c>
       <c r="H11">
-        <v>0.0209577875582454</v>
+        <v>0.02087817714146922</v>
       </c>
       <c r="I11">
-        <v>0.003608154223284643</v>
+        <v>0.003892979826220611</v>
       </c>
       <c r="J11">
-        <v>0.2031425261318205</v>
+        <v>0.1922395563344779</v>
       </c>
       <c r="K11">
-        <v>0.1776678126374627</v>
+        <v>0.1621182122082594</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09339831343328608</v>
       </c>
       <c r="M11">
-        <v>1.137664976501696</v>
+        <v>0.04104997918295794</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6007942979702321</v>
+        <v>1.120665647409396</v>
       </c>
       <c r="P11">
-        <v>0.7382439438647879</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7847513468040859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.597682626562225</v>
+      </c>
+      <c r="R11">
+        <v>0.7614414134738539</v>
+      </c>
+      <c r="S11">
+        <v>0.7142087844405296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.111276857679286</v>
+        <v>1.066733018153997</v>
       </c>
       <c r="C12">
-        <v>0.178437386047591</v>
+        <v>0.1819138428275551</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1621678730091922</v>
+        <v>0.1624509163430687</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1699957079679066</v>
+        <v>0.1881503656136232</v>
       </c>
       <c r="H12">
-        <v>0.05907142026371304</v>
+        <v>0.05899513777745113</v>
       </c>
       <c r="I12">
-        <v>0.003668653284290002</v>
+        <v>0.003933719809332104</v>
       </c>
       <c r="J12">
-        <v>0.1899189932973115</v>
+        <v>0.1786946674873349</v>
       </c>
       <c r="K12">
-        <v>0.1645892599460339</v>
+        <v>0.1507563563249619</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08940790001862187</v>
       </c>
       <c r="M12">
-        <v>1.164799844674349</v>
+        <v>0.03689763605869523</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4381571642077731</v>
+        <v>1.143634309038703</v>
       </c>
       <c r="P12">
-        <v>0.7677000788552206</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7072389876215937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4348523817457774</v>
+      </c>
+      <c r="R12">
+        <v>0.797502572426815</v>
+      </c>
+      <c r="S12">
+        <v>0.6397479563838289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.113483823760674</v>
+        <v>1.073855566921338</v>
       </c>
       <c r="C13">
-        <v>0.1740716122169204</v>
+        <v>0.1756642675935609</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06733739350369916</v>
+        <v>0.06719316088101657</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1486980142123429</v>
+        <v>0.163030778417891</v>
       </c>
       <c r="H13">
-        <v>0.1143104990408972</v>
+        <v>0.1142528219483268</v>
       </c>
       <c r="I13">
-        <v>0.003461319188002854</v>
+        <v>0.003740410306257047</v>
       </c>
       <c r="J13">
-        <v>0.1788510293785421</v>
+        <v>0.175530424990642</v>
       </c>
       <c r="K13">
-        <v>0.1546710198926</v>
+        <v>0.1435265438257955</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0873414119139162</v>
       </c>
       <c r="M13">
-        <v>1.159004747739743</v>
+        <v>0.03331089724874836</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2942218771528289</v>
+        <v>1.138828909725106</v>
       </c>
       <c r="P13">
-        <v>0.8037177983083055</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6388771472250312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2916721654208629</v>
+      </c>
+      <c r="R13">
+        <v>0.8345456705390575</v>
+      </c>
+      <c r="S13">
+        <v>0.5838737331413029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.099690612635868</v>
+        <v>1.065566657744313</v>
       </c>
       <c r="C14">
-        <v>0.1696672689528071</v>
+        <v>0.1702927970023751</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0332359975078802</v>
+        <v>0.03282232619462011</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1349126767130251</v>
+        <v>0.1420992396538523</v>
       </c>
       <c r="H14">
-        <v>0.163342664977506</v>
+        <v>0.1633011403559834</v>
       </c>
       <c r="I14">
-        <v>0.003279433884181948</v>
+        <v>0.003596419797949224</v>
       </c>
       <c r="J14">
-        <v>0.172094744893279</v>
+        <v>0.1762818112960804</v>
       </c>
       <c r="K14">
-        <v>0.1491832807875788</v>
+        <v>0.1401223584031204</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08655713361395723</v>
       </c>
       <c r="M14">
-        <v>1.140046598631784</v>
+        <v>0.03111148938643371</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2061230586040885</v>
+        <v>1.122834683775125</v>
       </c>
       <c r="P14">
-        <v>0.8324605404632166</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5954511456658906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2043279561447591</v>
+      </c>
+      <c r="R14">
+        <v>0.8608762837873769</v>
+      </c>
+      <c r="S14">
+        <v>0.5521061701979875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.088498882859653</v>
+        <v>1.056615460413383</v>
       </c>
       <c r="C15">
-        <v>0.1681546417166544</v>
+        <v>0.1686810144766753</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02918549132823545</v>
+        <v>0.02873624318429302</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1316582155171169</v>
+        <v>0.1353805921972793</v>
       </c>
       <c r="H15">
-        <v>0.1757425763198057</v>
+        <v>0.1757074489836157</v>
       </c>
       <c r="I15">
-        <v>0.003284466223685278</v>
+        <v>0.003639288555866038</v>
       </c>
       <c r="J15">
-        <v>0.1707394138022806</v>
+        <v>0.1777641994293528</v>
       </c>
       <c r="K15">
-        <v>0.1482606291028468</v>
+        <v>0.1398263480878787</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08658547256825422</v>
       </c>
       <c r="M15">
-        <v>1.128369136914358</v>
+        <v>0.03062992875930881</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1855552920364154</v>
+        <v>1.112852108079238</v>
       </c>
       <c r="P15">
-        <v>0.8403583135390349</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.585685498620812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1840315023742995</v>
+      </c>
+      <c r="R15">
+        <v>0.8669156045921937</v>
+      </c>
+      <c r="S15">
+        <v>0.546504392058921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.0203646432509</v>
+        <v>0.9960718311745893</v>
       </c>
       <c r="C16">
-        <v>0.1610542844091469</v>
+        <v>0.1624012500142555</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02989197000299448</v>
+        <v>0.029607763930807</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1335877122083389</v>
+        <v>0.1231715899345645</v>
       </c>
       <c r="H16">
-        <v>0.1625373262830863</v>
+        <v>0.1625257488753959</v>
       </c>
       <c r="I16">
-        <v>0.002901022243987583</v>
+        <v>0.003331597688996268</v>
       </c>
       <c r="J16">
-        <v>0.1742288440530544</v>
+        <v>0.1924710211790739</v>
       </c>
       <c r="K16">
-        <v>0.1528447841703144</v>
+        <v>0.1454701347967751</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0890245927376272</v>
       </c>
       <c r="M16">
-        <v>1.060960327399243</v>
+        <v>0.03133152178502829</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1768706378554548</v>
+        <v>1.053432993660152</v>
       </c>
       <c r="P16">
-        <v>0.8406458190848269</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5969381142945167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1762157732884262</v>
+      </c>
+      <c r="R16">
+        <v>0.8570265011442189</v>
+      </c>
+      <c r="S16">
+        <v>0.569537327257386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9754619249379459</v>
+        <v>0.9534469734817321</v>
       </c>
       <c r="C17">
-        <v>0.1579823362151416</v>
+        <v>0.1601385310177221</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04311681594908379</v>
+        <v>0.04294247400855333</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1422729309182209</v>
+        <v>0.1258102079116981</v>
       </c>
       <c r="H17">
-        <v>0.1245396044988212</v>
+        <v>0.124536157602094</v>
       </c>
       <c r="I17">
-        <v>0.00273257628996415</v>
+        <v>0.003197893489550019</v>
       </c>
       <c r="J17">
-        <v>0.180484299286956</v>
+        <v>0.2043709405915699</v>
       </c>
       <c r="K17">
-        <v>0.1592328898703972</v>
+        <v>0.1516583265667579</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0916112967853735</v>
       </c>
       <c r="M17">
-        <v>1.019427266741843</v>
+        <v>0.03287299933427779</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2139591324034562</v>
+        <v>1.015327146551584</v>
       </c>
       <c r="P17">
-        <v>0.8257639950021343</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6283668478682571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2136490899684773</v>
+      </c>
+      <c r="R17">
+        <v>0.8374294303186218</v>
+      </c>
+      <c r="S17">
+        <v>0.6036344136205756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9472451952278789</v>
+        <v>0.9240617516263683</v>
       </c>
       <c r="C18">
-        <v>0.1573445211281097</v>
+        <v>0.1608462720686816</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09625600249764332</v>
+        <v>0.09611223856964557</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1589772889809424</v>
+        <v>0.1387754249998849</v>
       </c>
       <c r="H18">
-        <v>0.07176504963264563</v>
+        <v>0.07176386917610955</v>
       </c>
       <c r="I18">
-        <v>0.002450889338712514</v>
+        <v>0.002878715675124432</v>
       </c>
       <c r="J18">
-        <v>0.1903562590454868</v>
+        <v>0.2164155611693026</v>
       </c>
       <c r="K18">
-        <v>0.168716073511499</v>
+        <v>0.1600003303200328</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09499442851312612</v>
       </c>
       <c r="M18">
-        <v>0.9954427135246817</v>
+        <v>0.03556215070470792</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3076060350571126</v>
+        <v>0.9927780936594104</v>
       </c>
       <c r="P18">
-        <v>0.7979107718327398</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6844177743152784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3074517579654312</v>
+      </c>
+      <c r="R18">
+        <v>0.8073608112360375</v>
+      </c>
+      <c r="S18">
+        <v>0.6569108858047912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9309184633091547</v>
+        <v>0.9043431322180027</v>
       </c>
       <c r="C19">
-        <v>0.1604209054773946</v>
+        <v>0.1659382256555233</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2194449834365315</v>
+        <v>0.2192705508119985</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1811492920684614</v>
+        <v>0.1580968224660353</v>
       </c>
       <c r="H19">
-        <v>0.02694837758008362</v>
+        <v>0.02694522463628601</v>
       </c>
       <c r="I19">
-        <v>0.002617119466244766</v>
+        <v>0.003066777994220615</v>
       </c>
       <c r="J19">
-        <v>0.2023470703761205</v>
+        <v>0.2283155381543125</v>
       </c>
       <c r="K19">
-        <v>0.180030427173218</v>
+        <v>0.1694923220997122</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09872521469055417</v>
       </c>
       <c r="M19">
-        <v>0.98739978089327</v>
+        <v>0.03899496508891964</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4602162297562913</v>
+        <v>0.9850936733340347</v>
       </c>
       <c r="P19">
-        <v>0.767132462476269</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.756541123649086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4600977549071814</v>
+      </c>
+      <c r="R19">
+        <v>0.7755497658803847</v>
+      </c>
+      <c r="S19">
+        <v>0.7225033853769816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.955032018083358</v>
+        <v>0.9190184633078502</v>
       </c>
       <c r="C20">
-        <v>0.1709529451468086</v>
+        <v>0.1802542602760724</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5292633653538559</v>
+        <v>0.5290822855974113</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2195966631125614</v>
+        <v>0.1975276429851647</v>
       </c>
       <c r="H20">
-        <v>0.00258682501834917</v>
+        <v>0.002553836868296244</v>
       </c>
       <c r="I20">
-        <v>0.00312901301635371</v>
+        <v>0.00355482164559362</v>
       </c>
       <c r="J20">
-        <v>0.2207267091627756</v>
+        <v>0.2377675443491114</v>
       </c>
       <c r="K20">
-        <v>0.1971801061603244</v>
+        <v>0.1824742908234036</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1028354949608712</v>
       </c>
       <c r="M20">
-        <v>1.024260988771715</v>
+        <v>0.04529530424074579</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7719848533005873</v>
+        <v>1.019644788526421</v>
       </c>
       <c r="P20">
-        <v>0.7234597151387163</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8766690123511154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7712567347172339</v>
+      </c>
+      <c r="R20">
+        <v>0.7325507580697064</v>
+      </c>
+      <c r="S20">
+        <v>0.8238132064343233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.072241481759363</v>
+        <v>1.019387101929595</v>
       </c>
       <c r="C21">
-        <v>0.1867230185560516</v>
+        <v>0.1951133478093254</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6203839493461061</v>
+        <v>0.621541117060346</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2297737010126752</v>
+        <v>0.2497242219244526</v>
       </c>
       <c r="H21">
-        <v>0.004213226024853967</v>
+        <v>0.00407463701613342</v>
       </c>
       <c r="I21">
-        <v>0.00416933491057847</v>
+        <v>0.004448854064991181</v>
       </c>
       <c r="J21">
-        <v>0.2213087748021536</v>
+        <v>0.1942105480324798</v>
       </c>
       <c r="K21">
-        <v>0.1951904049835136</v>
+        <v>0.174554057518467</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09726481974127932</v>
       </c>
       <c r="M21">
-        <v>1.14629610799318</v>
+        <v>0.04691162914812175</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8946302787736471</v>
+        <v>1.125656483104478</v>
       </c>
       <c r="P21">
-        <v>0.7008905594402037</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8997335156294639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8898547210277172</v>
+      </c>
+      <c r="R21">
+        <v>0.722135648786022</v>
+      </c>
+      <c r="S21">
+        <v>0.804530141783232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.151511481900059</v>
+        <v>1.087136181998034</v>
       </c>
       <c r="C22">
-        <v>0.1957383587566852</v>
+        <v>0.2029787600865376</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6625990148231153</v>
+        <v>0.6648144337199398</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2357894111767962</v>
+        <v>0.2902107004079326</v>
       </c>
       <c r="H22">
-        <v>0.005429240739969532</v>
+        <v>0.005203937655148816</v>
       </c>
       <c r="I22">
-        <v>0.004676062572690043</v>
+        <v>0.004764246676614015</v>
       </c>
       <c r="J22">
-        <v>0.2214154889239168</v>
+        <v>0.1737403036604164</v>
       </c>
       <c r="K22">
-        <v>0.193861593310686</v>
+        <v>0.1691274628905681</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09381180635878561</v>
       </c>
       <c r="M22">
-        <v>1.225966184174581</v>
+        <v>0.04801740758049888</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9595015661561064</v>
+        <v>1.193651736559048</v>
       </c>
       <c r="P22">
-        <v>0.6876031835947458</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9128800858128301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.951756785956448</v>
+      </c>
+      <c r="R22">
+        <v>0.7177869688555134</v>
+      </c>
+      <c r="S22">
+        <v>0.7880626419971293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.111510880823204</v>
+        <v>1.054094843228427</v>
       </c>
       <c r="C23">
-        <v>0.1898839529115293</v>
+        <v>0.1982689797743689</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6400918825187603</v>
+        <v>0.6415320134562421</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2334267151620111</v>
+        <v>0.2636701684233813</v>
       </c>
       <c r="H23">
-        <v>0.004767126990500969</v>
+        <v>0.004594367201057215</v>
       </c>
       <c r="I23">
-        <v>0.004115163604657468</v>
+        <v>0.004251255237239349</v>
       </c>
       <c r="J23">
-        <v>0.22179478863589</v>
+        <v>0.1868818320245005</v>
       </c>
       <c r="K23">
-        <v>0.1952408886884172</v>
+        <v>0.1730823666879253</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09595775815074514</v>
       </c>
       <c r="M23">
-        <v>1.183450842312453</v>
+        <v>0.04789365704882442</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9248725187973648</v>
+        <v>1.159094509987142</v>
       </c>
       <c r="P23">
-        <v>0.6940042225294576</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9085757149265135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9191506917570251</v>
+      </c>
+      <c r="R23">
+        <v>0.7183180714855268</v>
+      </c>
+      <c r="S23">
+        <v>0.8030784719868791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9558233877338864</v>
+        <v>0.919507886718236</v>
       </c>
       <c r="C24">
-        <v>0.1695764942327855</v>
+        <v>0.178958118840896</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5549565401402887</v>
+        <v>0.5547596221849886</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2237242197178588</v>
+        <v>0.2010492272865747</v>
       </c>
       <c r="H24">
-        <v>0.002603633851713694</v>
+        <v>0.002569582041533569</v>
       </c>
       <c r="I24">
-        <v>0.00267873734109525</v>
+        <v>0.003004424590841381</v>
       </c>
       <c r="J24">
-        <v>0.2229111922053448</v>
+        <v>0.2401510681547023</v>
       </c>
       <c r="K24">
-        <v>0.1997698266825285</v>
+        <v>0.1847415917013731</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1037190571533095</v>
       </c>
       <c r="M24">
-        <v>1.022336238766684</v>
+        <v>0.04612203231421574</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7939055073969996</v>
+        <v>1.017847816931663</v>
       </c>
       <c r="P24">
-        <v>0.7204625062873689</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.889994463720015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7931960998637493</v>
+      </c>
+      <c r="R24">
+        <v>0.7290427227565814</v>
+      </c>
+      <c r="S24">
+        <v>0.8362805648181251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7869670668514459</v>
+        <v>0.7634892063584005</v>
       </c>
       <c r="C25">
-        <v>0.1479566987160013</v>
+        <v>0.1518884315775324</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4633421396922159</v>
+        <v>0.4635413777713566</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2145990145296324</v>
+        <v>0.1906841168465405</v>
       </c>
       <c r="H25">
-        <v>0.0009417404013805086</v>
+        <v>0.0009571524511184926</v>
       </c>
       <c r="I25">
-        <v>0.001631226114943374</v>
+        <v>0.002004157044448895</v>
       </c>
       <c r="J25">
-        <v>0.2249707065400202</v>
+        <v>0.2474421236194928</v>
       </c>
       <c r="K25">
-        <v>0.2055291784880833</v>
+        <v>0.1924742573256424</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1111985606900951</v>
       </c>
       <c r="M25">
-        <v>0.8482486173569157</v>
+        <v>0.04325281751777688</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.652905771902752</v>
+        <v>0.8462089296835131</v>
       </c>
       <c r="P25">
-        <v>0.751308954758386</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8745643930271711</v>
+        <v>0.6528048096656249</v>
+      </c>
+      <c r="R25">
+        <v>0.7524350580190173</v>
+      </c>
+      <c r="S25">
+        <v>0.8337795023744974</v>
       </c>
     </row>
   </sheetData>
